--- a/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>LCTX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,98 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
-      </c>
-      <c r="E8" s="3">
-        <v>800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>900</v>
       </c>
       <c r="G8" s="3">
         <v>800</v>
       </c>
       <c r="H8" s="3">
+        <v>900</v>
+      </c>
+      <c r="I8" s="3">
+        <v>800</v>
+      </c>
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,48 +773,60 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F10" s="3">
         <v>500</v>
-      </c>
-      <c r="E10" s="3">
-        <v>700</v>
-      </c>
-      <c r="F10" s="3">
-        <v>800</v>
       </c>
       <c r="G10" s="3">
         <v>700</v>
       </c>
       <c r="H10" s="3">
+        <v>800</v>
+      </c>
+      <c r="I10" s="3">
+        <v>700</v>
+      </c>
+      <c r="J10" s="3">
         <v>1000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F12" s="3">
         <v>3800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>4800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>4500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>3400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>4300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>5800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>5400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,13 +904,19 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -889,19 +928,25 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-78500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -909,28 +954,34 @@
         <v>500</v>
       </c>
       <c r="E15" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F15" s="3">
         <v>500</v>
       </c>
       <c r="G15" s="3">
+        <v>500</v>
+      </c>
+      <c r="H15" s="3">
+        <v>500</v>
+      </c>
+      <c r="I15" s="3">
         <v>400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>600</v>
       </c>
       <c r="J15" s="3">
         <v>600</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="3">
+        <v>600</v>
+      </c>
+      <c r="L15" s="3">
+        <v>600</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F17" s="3">
         <v>9000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>11600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>13700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>11000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>-67200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>11700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>12900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-8400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-10800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-12800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-10200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>68200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-9200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-12200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,66 +1075,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-9100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-20500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>47700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-35200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>4500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-51500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-67300</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-16700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-30500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>35700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-44600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>67300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-62800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,66 +1176,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-17500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-31300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>34900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-45300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>66500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-63700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-76800</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-4400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-16500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-30100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>39300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-45000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>66500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-63700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-72100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-16500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-30000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>39300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-45000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>66700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-63500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>9100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>20500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-47700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>35200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-4500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>51500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-16500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-30000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>39300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-45000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>66700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-63500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-16500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-30000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>39300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-45000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>66700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-63500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,95 +1705,115 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F41" s="3">
         <v>14400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>8200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>18000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>23600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>19500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>27200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>29800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>36800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>21200</v>
+      </c>
+      <c r="F42" s="3">
         <v>21300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>8500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>9100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>7200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>2000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F43" s="3">
         <v>23600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>13700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,153 +1841,189 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>57500</v>
+      </c>
+      <c r="F46" s="3">
         <v>61600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>20500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>30700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>36400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>36900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>34500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>36100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>59400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>80400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>55800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>129900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>66800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>62400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>117200</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F48" s="3">
         <v>8800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>8700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>8900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>58900</v>
+      </c>
+      <c r="F49" s="3">
         <v>61700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>62300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>62800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>5700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>6300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>900</v>
+      </c>
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>118900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>125500</v>
+      </c>
+      <c r="F54" s="3">
         <v>133000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>151700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>183700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>101700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>176100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>112300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>110400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,37 +2225,45 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1200</v>
       </c>
       <c r="J57" s="3">
         <v>700</v>
       </c>
       <c r="K57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L57" s="3">
+        <v>700</v>
+      </c>
+      <c r="M57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2010,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -2022,68 +2289,86 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F59" s="3">
         <v>4100</v>
       </c>
-      <c r="E59" s="3">
-        <v>5100</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H59" s="3">
         <v>7300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F60" s="3">
         <v>6200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2097,51 +2382,63 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
+        <v>100</v>
+      </c>
+      <c r="H61" s="3">
+        <v>100</v>
+      </c>
+      <c r="I61" s="3">
         <v>2000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F62" s="3">
         <v>11200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>12000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>13700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>700</v>
       </c>
       <c r="I62" s="3">
         <v>600</v>
       </c>
       <c r="J62" s="3">
+        <v>700</v>
+      </c>
+      <c r="K62" s="3">
+        <v>600</v>
+      </c>
+      <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F66" s="3">
         <v>15800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>18300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>20900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>11300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>10400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-281800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-273400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-268900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-252400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-222400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-261900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-216900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-283600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-279400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-216300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>106500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>113000</v>
+      </c>
+      <c r="F76" s="3">
         <v>117200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>133400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>162800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>93800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>171100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>101000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>100000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-16500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-30000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>39300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-45000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>66700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-63500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,13 +3030,15 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E83" s="3">
         <v>800</v>
@@ -2650,22 +3047,28 @@
         <v>800</v>
       </c>
       <c r="G83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H83" s="3">
         <v>800</v>
       </c>
       <c r="I83" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="J83" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>900</v>
+      </c>
+      <c r="M83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-9700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-9300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-5800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-7300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-7400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-10300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,19 +3290,21 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
@@ -2872,16 +3313,22 @@
         <v>-200</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>700</v>
+      </c>
+      <c r="F94" s="3">
         <v>13500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>2900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>9800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>2200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3581,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>4900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F102" s="3">
         <v>6200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-9900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>4100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-7300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-7400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>20200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>LCTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,105 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,10 +786,10 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -790,43 +797,49 @@
       <c r="M9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E12" s="3">
         <v>2800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,16 +927,19 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -934,30 +954,33 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-78500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
         <v>500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>500</v>
       </c>
       <c r="G15" s="3">
         <v>500</v>
@@ -966,10 +989,10 @@
         <v>500</v>
       </c>
       <c r="I15" s="3">
+        <v>500</v>
+      </c>
+      <c r="J15" s="3">
         <v>400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>600</v>
       </c>
       <c r="K15" s="3">
         <v>600</v>
@@ -977,11 +1000,14 @@
       <c r="L15" s="3">
         <v>600</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="3">
+        <v>600</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E17" s="3">
         <v>8000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-67200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>68200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1110,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-9100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-20500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>47700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-35200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-51500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-67300</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-16700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-30500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>35700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-44600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>67300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-62800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,67 +1222,73 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-17500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-31300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>34900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-45300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>66500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-63700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-76800</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1250,10 +1296,13 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-16500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-30100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>39300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-45000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>66500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-63700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-72100</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-16500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-30000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>39300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-45000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>66700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-63500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>9100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>20500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-47700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>35200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>51500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-16500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-30000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>39300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-45000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>66700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-63500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-16500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-30000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>39300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-45000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>66700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-63500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,113 +1793,123 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E41" s="3">
         <v>9800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>36800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E42" s="3">
         <v>15900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>21200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>21300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>8500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>9100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>7200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E43" s="3">
         <v>24300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>23600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3800</v>
-      </c>
-      <c r="L43" s="3">
-        <v>3000</v>
       </c>
       <c r="M43" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,183 +1943,201 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E46" s="3">
         <v>52300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>57500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>61600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>30700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>36400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>36900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>36100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>59400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>80400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>55800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>129900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>66800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>62400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>117200</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E48" s="3">
         <v>7500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E49" s="3">
         <v>58400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>58900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>61700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>62300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>62800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2101,34 +2221,37 @@
         <v>600</v>
       </c>
       <c r="E52" s="3">
+        <v>600</v>
+      </c>
+      <c r="F52" s="3">
         <v>900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>800</v>
       </c>
       <c r="G52" s="3">
         <v>800</v>
       </c>
       <c r="H52" s="3">
+        <v>800</v>
+      </c>
+      <c r="I52" s="3">
         <v>900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>500</v>
       </c>
       <c r="J52" s="3">
         <v>500</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
       </c>
       <c r="M52" s="3">
+        <v>200</v>
+      </c>
+      <c r="N52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>112100</v>
+      </c>
+      <c r="E54" s="3">
         <v>118900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>125500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>133000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>151700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>183700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>101700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>176100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>112300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>110400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,48 +2357,52 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2280,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -2295,80 +2429,89 @@
         <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E59" s="3">
         <v>3400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E60" s="3">
         <v>7000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>5800</v>
       </c>
       <c r="L60" s="3">
         <v>5800</v>
       </c>
       <c r="M60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="N60" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2388,57 +2531,63 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
+        <v>100</v>
+      </c>
+      <c r="J61" s="3">
         <v>2000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E62" s="3">
         <v>7100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E66" s="3">
         <v>12400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-288300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-281800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-273400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-268900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-252400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-222400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-261900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-216900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-283600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-279400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-216300</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>99400</v>
+      </c>
+      <c r="E76" s="3">
         <v>106500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>113000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>117200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>133400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>162800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>93800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>171100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>101000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>100000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-16500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-30000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>39300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-45000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>66700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-63500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,16 +3230,17 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
-      </c>
-      <c r="E83" s="3">
-        <v>800</v>
       </c>
       <c r="F83" s="3">
         <v>800</v>
@@ -3053,13 +3252,13 @@
         <v>800</v>
       </c>
       <c r="I83" s="3">
+        <v>800</v>
+      </c>
+      <c r="J83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>800</v>
-      </c>
-      <c r="K83" s="3">
-        <v>900</v>
       </c>
       <c r="L83" s="3">
         <v>900</v>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3304,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
@@ -3319,16 +3540,19 @@
         <v>-200</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E94" s="3">
         <v>5300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>13500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>9800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>2200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +3830,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>4900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>100</v>
       </c>
       <c r="M101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>20200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>LCTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,112 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -789,10 +796,10 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
@@ -800,46 +807,52 @@
       <c r="N9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +867,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E12" s="3">
         <v>2500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -941,8 +961,8 @@
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -957,33 +977,36 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-78500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>800</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>500</v>
       </c>
       <c r="H15" s="3">
         <v>500</v>
@@ -992,10 +1015,10 @@
         <v>500</v>
       </c>
       <c r="J15" s="3">
+        <v>500</v>
+      </c>
+      <c r="K15" s="3">
         <v>400</v>
-      </c>
-      <c r="K15" s="3">
-        <v>600</v>
       </c>
       <c r="L15" s="3">
         <v>600</v>
@@ -1003,11 +1026,14 @@
       <c r="M15" s="3">
         <v>600</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="3">
+        <v>600</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E17" s="3">
         <v>6800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-67200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>68200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1144,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-9100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-20500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>47700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-35200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-51500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-67300</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-16700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-30500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>35700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-44600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>67300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-62800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,73 +1265,79 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-17500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-31300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>34900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-45300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>66500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-63700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-76800</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1299,10 +1345,13 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-16500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-30100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>39300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-45000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>66500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-63700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-72100</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-30000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>39300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-45000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>66700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-63500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>9100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>20500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-47700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>35200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>51500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-30000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>39300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-45000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>66700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-63500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-30000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>39300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-45000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>66700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-63500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,122 +1880,132 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E41" s="3">
         <v>12700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>36800</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E42" s="3">
         <v>7600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>15900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>21200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>21300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>8500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>9100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>7200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>24600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>23900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>23600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3800</v>
-      </c>
-      <c r="M43" s="3">
-        <v>3000</v>
       </c>
       <c r="N43" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2042,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1955,75 +2054,81 @@
         <v>1400</v>
       </c>
       <c r="E45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E46" s="3">
         <v>46200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>52300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>57500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>61600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>20500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>30700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>36400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>36900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>36100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2033,111 +2138,120 @@
       <c r="E47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>59400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>80400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>55800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>129900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>66800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>62400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>117200</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E48" s="3">
         <v>7100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E49" s="3">
         <v>58100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>58400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>58900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>61700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>62300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>62800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
       </c>
       <c r="F52" s="3">
+        <v>600</v>
+      </c>
+      <c r="G52" s="3">
         <v>900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>800</v>
       </c>
       <c r="H52" s="3">
         <v>800</v>
       </c>
       <c r="I52" s="3">
+        <v>800</v>
+      </c>
+      <c r="J52" s="3">
         <v>900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>500</v>
       </c>
       <c r="K52" s="3">
         <v>500</v>
       </c>
       <c r="L52" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M52" s="3">
         <v>200</v>
       </c>
       <c r="N52" s="3">
+        <v>200</v>
+      </c>
+      <c r="O52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>103100</v>
+      </c>
+      <c r="E54" s="3">
         <v>112100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>118900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>125500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>133000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>151700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>183700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>101700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>176100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>112300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>110400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,55 +2488,59 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
@@ -2417,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -2432,91 +2566,100 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E59" s="3">
         <v>3500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E60" s="3">
         <v>7500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>5800</v>
       </c>
       <c r="M60" s="3">
         <v>5800</v>
       </c>
       <c r="N60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="O60" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -2534,60 +2677,66 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
+        <v>100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E62" s="3">
         <v>6800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E66" s="3">
         <v>12600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-296100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-288300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-281800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-273400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-268900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-252400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-222400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-261900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-216900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-283600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-279400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-216300</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>91300</v>
+      </c>
+      <c r="E76" s="3">
         <v>99400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>106500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>113000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>117200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>133400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>162800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>93800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>171100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>101000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>100000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-30000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>39300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-45000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>66700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-63500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,19 +3429,20 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>700</v>
-      </c>
-      <c r="F83" s="3">
-        <v>800</v>
       </c>
       <c r="G83" s="3">
         <v>800</v>
@@ -3255,13 +3454,13 @@
         <v>800</v>
       </c>
       <c r="J83" s="3">
+        <v>800</v>
+      </c>
+      <c r="K83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>900</v>
       </c>
       <c r="M83" s="3">
         <v>900</v>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3528,10 +3749,10 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
@@ -3543,16 +3764,19 @@
         <v>-200</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>200</v>
+      </c>
+      <c r="E94" s="3">
         <v>6700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>13500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>9800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>2200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4076,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>4900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
-      </c>
-      <c r="M101" s="3">
-        <v>100</v>
       </c>
       <c r="N101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E102" s="3">
         <v>2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>20200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>LCTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,118 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -799,10 +805,10 @@
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
@@ -810,49 +816,55 @@
       <c r="O9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E12" s="3">
         <v>3400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -964,8 +983,8 @@
       <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -980,19 +999,22 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-78500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1000,16 +1022,16 @@
         <v>200</v>
       </c>
       <c r="E15" s="3">
+        <v>200</v>
+      </c>
+      <c r="F15" s="3">
         <v>300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>500</v>
       </c>
       <c r="I15" s="3">
         <v>500</v>
@@ -1018,10 +1040,10 @@
         <v>500</v>
       </c>
       <c r="K15" s="3">
+        <v>500</v>
+      </c>
+      <c r="L15" s="3">
         <v>400</v>
-      </c>
-      <c r="L15" s="3">
-        <v>600</v>
       </c>
       <c r="M15" s="3">
         <v>600</v>
@@ -1029,11 +1051,14 @@
       <c r="N15" s="3">
         <v>600</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="3">
+        <v>600</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E17" s="3">
         <v>7300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-67200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>68200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,90 +1177,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-9100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-20500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>47700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-35200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-51500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-67300</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-16700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-30500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>35700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-44600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>67300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-62800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,79 +1307,85 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-17500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-31300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>34900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-45300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>66500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-63700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-76800</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1348,10 +1393,13 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-16500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-30100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>39300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-45000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>66500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-63700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-72100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-30000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>39300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-45000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>66700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-63500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E32" s="3">
         <v>1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>9100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>20500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-47700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>35200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>51500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-30000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>39300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-45000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>66700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-63500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-30000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>39300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-45000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>66700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-63500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1890,122 +1976,131 @@
         <v>32600</v>
       </c>
       <c r="E41" s="3">
+        <v>32600</v>
+      </c>
+      <c r="F41" s="3">
         <v>12700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>27200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>29800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>36800</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E42" s="3">
         <v>5500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>7600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>15900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>21200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>21300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>8500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>9100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>23900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>23600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3800</v>
-      </c>
-      <c r="N43" s="3">
-        <v>3000</v>
       </c>
       <c r="O43" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,90 +2140,99 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="E45" s="3">
         <v>1400</v>
       </c>
       <c r="F45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E46" s="3">
         <v>39700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>46200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>52300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>57500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>61600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>20500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>30700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>36400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>36900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>36100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2141,117 +2245,126 @@
       <c r="F47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>59400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>80400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>55800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>129900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>66800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>62400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>117200</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E48" s="3">
         <v>4800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E49" s="3">
         <v>57800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>58100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>58400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>58900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>61700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>62300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>62800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
         <v>700</v>
-      </c>
-      <c r="E52" s="3">
-        <v>600</v>
       </c>
       <c r="F52" s="3">
         <v>600</v>
       </c>
       <c r="G52" s="3">
+        <v>600</v>
+      </c>
+      <c r="H52" s="3">
         <v>900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>800</v>
       </c>
       <c r="I52" s="3">
         <v>800</v>
       </c>
       <c r="J52" s="3">
+        <v>800</v>
+      </c>
+      <c r="K52" s="3">
         <v>900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>500</v>
       </c>
       <c r="L52" s="3">
         <v>500</v>
       </c>
       <c r="M52" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N52" s="3">
         <v>200</v>
       </c>
       <c r="O52" s="3">
+        <v>200</v>
+      </c>
+      <c r="P52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>107900</v>
+      </c>
+      <c r="E54" s="3">
         <v>103100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>112100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>118900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>125500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>133000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>151700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>183700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>101700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>176100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>112300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>110400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,49 +2618,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2539,11 +2672,11 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -2554,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -2569,51 +2702,57 @@
         <v>100</v>
       </c>
       <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E59" s="3">
         <v>4100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2621,40 +2760,43 @@
         <v>7800</v>
       </c>
       <c r="E60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F60" s="3">
         <v>7500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>5800</v>
       </c>
       <c r="N60" s="3">
         <v>5800</v>
       </c>
       <c r="O60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="P60" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2662,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -2680,63 +2822,69 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
+        <v>100</v>
+      </c>
+      <c r="L61" s="3">
         <v>2000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,8 +3012,11 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2867,40 +3024,43 @@
         <v>11800</v>
       </c>
       <c r="E66" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F66" s="3">
         <v>12600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-294100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-296100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-288300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-281800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-273400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-268900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-252400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-222400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-261900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-216900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-283600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-279400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-216300</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>96200</v>
+      </c>
+      <c r="E76" s="3">
         <v>91300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>99400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>106500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>113000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>117200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>133400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>162800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>93800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>171100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>101000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>100000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-30000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>39300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-45000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>66700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-63500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,22 +3627,23 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>800</v>
       </c>
       <c r="H83" s="3">
         <v>800</v>
@@ -3457,13 +3655,13 @@
         <v>800</v>
       </c>
       <c r="K83" s="3">
+        <v>800</v>
+      </c>
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>900</v>
       </c>
       <c r="N83" s="3">
         <v>900</v>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-10300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3752,10 +3972,10 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-200</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
@@ -3767,16 +3987,19 @@
         <v>-200</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>900</v>
+      </c>
+      <c r="E94" s="3">
         <v>200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>6700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>13500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>9800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>2200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E100" s="3">
         <v>24600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>4900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4129,77 +4377,83 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
-      </c>
-      <c r="N101" s="3">
-        <v>100</v>
       </c>
       <c r="O101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>19900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>20200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>LCTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,43 +744,46 @@
         <v>400</v>
       </c>
       <c r="E8" s="3">
+        <v>400</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -808,10 +815,10 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -819,8 +826,11 @@
       <c r="P9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,43 +838,46 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E12" s="3">
         <v>2400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,8 +1006,8 @@
       <c r="G14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1002,39 +1022,42 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-78500</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
       </c>
       <c r="F15" s="3">
+        <v>200</v>
+      </c>
+      <c r="G15" s="3">
         <v>300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>500</v>
       </c>
       <c r="J15" s="3">
         <v>500</v>
@@ -1043,10 +1066,10 @@
         <v>500</v>
       </c>
       <c r="L15" s="3">
+        <v>500</v>
+      </c>
+      <c r="M15" s="3">
         <v>400</v>
-      </c>
-      <c r="M15" s="3">
-        <v>600</v>
       </c>
       <c r="N15" s="3">
         <v>600</v>
@@ -1054,11 +1077,14 @@
       <c r="O15" s="3">
         <v>600</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E17" s="3">
         <v>6200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-67200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>68200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E20" s="3">
         <v>6800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-9100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-20500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>47700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-35200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-51500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-67300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E21" s="3">
         <v>1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-16700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-30500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>35700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-44600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>67300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-62800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,85 +1350,91 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-17500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-31300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>34900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-45300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>66500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-63700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-76800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1396,10 +1442,13 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-16500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-30100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>39300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-45000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>66500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-63700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-72100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-16500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-30000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>39300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-45000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>66700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-63500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>9100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>20500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-47700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>35200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>51500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-16500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-30000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>39300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-45000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>66700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-63500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-16500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-30000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>39300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-45000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>66700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-63500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,140 +2053,150 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>32600</v>
+        <v>56200</v>
       </c>
       <c r="E41" s="3">
         <v>32600</v>
       </c>
       <c r="F41" s="3">
+        <v>32600</v>
+      </c>
+      <c r="G41" s="3">
         <v>12700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>27200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>29800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>36800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E42" s="3">
         <v>9000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>7600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>15900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>21200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>21300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>8500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>24300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>23900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>23600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3800</v>
-      </c>
-      <c r="O43" s="3">
-        <v>3000</v>
       </c>
       <c r="P43" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,96 +2239,105 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1400</v>
       </c>
       <c r="F45" s="3">
         <v>1400</v>
       </c>
       <c r="G45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E46" s="3">
         <v>44000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>39700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>46200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>52300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>57500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>61600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>20500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>36400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>36900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>36100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2248,123 +2353,132 @@
       <c r="G47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>59400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>80400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>55800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>129900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>66800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>62400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>117200</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E48" s="3">
         <v>5600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E49" s="3">
         <v>57700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>57800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>58100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>58400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>58900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>61700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>62300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>62800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2460,43 +2580,46 @@
         <v>600</v>
       </c>
       <c r="E52" s="3">
+        <v>600</v>
+      </c>
+      <c r="F52" s="3">
         <v>700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>600</v>
       </c>
       <c r="G52" s="3">
         <v>600</v>
       </c>
       <c r="H52" s="3">
+        <v>600</v>
+      </c>
+      <c r="I52" s="3">
         <v>900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>800</v>
       </c>
       <c r="J52" s="3">
         <v>800</v>
       </c>
       <c r="K52" s="3">
+        <v>800</v>
+      </c>
+      <c r="L52" s="3">
         <v>900</v>
-      </c>
-      <c r="L52" s="3">
-        <v>500</v>
       </c>
       <c r="M52" s="3">
         <v>500</v>
       </c>
       <c r="N52" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
       </c>
       <c r="P52" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>127900</v>
+      </c>
+      <c r="E54" s="3">
         <v>107900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>103100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>112100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>118900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>125500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>133000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>151700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>183700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>101700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>176100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>112300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>110400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2675,11 +2809,11 @@
         <v>500</v>
       </c>
       <c r="F58" s="3">
+        <v>500</v>
+      </c>
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -2690,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -2705,98 +2839,107 @@
         <v>100</v>
       </c>
       <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E59" s="3">
         <v>4600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7800</v>
+        <v>6600</v>
       </c>
       <c r="E60" s="3">
         <v>7800</v>
       </c>
       <c r="F60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G60" s="3">
         <v>7500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>5800</v>
       </c>
       <c r="O60" s="3">
         <v>5800</v>
       </c>
       <c r="P60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="Q60" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2807,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -2825,66 +2968,72 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
+        <v>100</v>
+      </c>
+      <c r="M61" s="3">
         <v>2000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E62" s="3">
         <v>5000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11800</v>
+        <v>10300</v>
       </c>
       <c r="E66" s="3">
         <v>11800</v>
       </c>
       <c r="F66" s="3">
+        <v>11800</v>
+      </c>
+      <c r="G66" s="3">
         <v>12600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-295500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-294100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-296100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-288300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-281800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-273400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-268900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-252400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-222400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-261900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-216900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-283600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-279400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-216300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>117700</v>
+      </c>
+      <c r="E76" s="3">
         <v>96200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>91300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>99400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>106500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>113000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>117200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>133400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>162800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>93800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>171100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>101000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>100000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-16500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-30000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>39300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-45000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>66700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-63500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,25 +3826,26 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>800</v>
       </c>
       <c r="I83" s="3">
         <v>800</v>
@@ -3658,13 +3857,13 @@
         <v>800</v>
       </c>
       <c r="L83" s="3">
+        <v>800</v>
+      </c>
+      <c r="M83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>800</v>
-      </c>
-      <c r="N83" s="3">
-        <v>900</v>
       </c>
       <c r="O83" s="3">
         <v>900</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3975,10 +4196,10 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
@@ -3990,16 +4211,19 @@
         <v>-200</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E94" s="3">
         <v>900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>6700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>13500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>9800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>2200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E100" s="3">
         <v>4800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>24600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>4900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
-      </c>
-      <c r="O101" s="3">
-        <v>100</v>
       </c>
       <c r="P101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>23500</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>19900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>20200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>LCTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,132 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
         <v>400</v>
       </c>
       <c r="F8" s="3">
+        <v>400</v>
+      </c>
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -818,10 +825,10 @@
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
@@ -829,55 +836,61 @@
       <c r="Q9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
       </c>
       <c r="F10" s="3">
+        <v>300</v>
+      </c>
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E12" s="3">
         <v>3300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,13 +1006,16 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
+      <c r="D14" s="3">
+        <v>-500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
@@ -1009,8 +1029,8 @@
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1025,42 +1045,45 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-78500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>800</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3">
         <v>100</v>
-      </c>
-      <c r="E15" s="3">
-        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
       </c>
       <c r="G15" s="3">
+        <v>200</v>
+      </c>
+      <c r="H15" s="3">
         <v>300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>500</v>
       </c>
       <c r="K15" s="3">
         <v>500</v>
@@ -1069,10 +1092,10 @@
         <v>500</v>
       </c>
       <c r="M15" s="3">
+        <v>500</v>
+      </c>
+      <c r="N15" s="3">
         <v>400</v>
-      </c>
-      <c r="N15" s="3">
-        <v>600</v>
       </c>
       <c r="O15" s="3">
         <v>600</v>
@@ -1080,11 +1103,14 @@
       <c r="P15" s="3">
         <v>600</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" s="3">
+        <v>600</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E17" s="3">
         <v>7400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-67200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>68200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>5600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-9100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-20500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>47700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-35200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-51500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-67300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-16700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-30500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>35700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-44600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>67300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-62800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,91 +1393,97 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-17500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-31300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>34900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-45300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>66500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-63700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-76800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1445,10 +1491,13 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-16500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-30100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>39300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-45000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>66500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-63700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-72100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-16500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-30000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>39300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-45000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>66700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-63500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>9100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>20500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-47700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>35200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>51500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-16500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-30000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>39300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-45000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>66700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-63500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-16500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-30000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>39300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-45000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>66700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-63500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,149 +2140,159 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E41" s="3">
         <v>56200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>32600</v>
       </c>
       <c r="F41" s="3">
         <v>32600</v>
       </c>
       <c r="G41" s="3">
+        <v>32600</v>
+      </c>
+      <c r="H41" s="3">
         <v>12700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>27200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>29800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>36800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E42" s="3">
         <v>6200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>9000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>7600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>15900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>21200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>21300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>24600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>24300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>23900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>23600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>13700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3800</v>
-      </c>
-      <c r="P43" s="3">
-        <v>3000</v>
       </c>
       <c r="Q43" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,119 +2338,128 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1400</v>
       </c>
       <c r="G45" s="3">
         <v>1400</v>
       </c>
       <c r="H45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E46" s="3">
         <v>64600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>44000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>39700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>46200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>52300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>57500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>61600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>36400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>36900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>34500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>36100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>11</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -2363,75 +2468,81 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>59400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>80400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>55800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>129900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>66800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>62400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>117200</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2439,46 +2550,49 @@
         <v>57600</v>
       </c>
       <c r="E49" s="3">
+        <v>57600</v>
+      </c>
+      <c r="F49" s="3">
         <v>57700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>57800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>58100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>58400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>58900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>61700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>62300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>62800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2583,43 +2703,46 @@
         <v>600</v>
       </c>
       <c r="F52" s="3">
+        <v>600</v>
+      </c>
+      <c r="G52" s="3">
         <v>700</v>
-      </c>
-      <c r="G52" s="3">
-        <v>600</v>
       </c>
       <c r="H52" s="3">
         <v>600</v>
       </c>
       <c r="I52" s="3">
+        <v>600</v>
+      </c>
+      <c r="J52" s="3">
         <v>900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>800</v>
       </c>
       <c r="K52" s="3">
         <v>800</v>
       </c>
       <c r="L52" s="3">
+        <v>800</v>
+      </c>
+      <c r="M52" s="3">
         <v>900</v>
-      </c>
-      <c r="M52" s="3">
-        <v>500</v>
       </c>
       <c r="N52" s="3">
         <v>500</v>
       </c>
       <c r="O52" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
       </c>
       <c r="Q52" s="3">
+        <v>200</v>
+      </c>
+      <c r="R52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>134800</v>
+      </c>
+      <c r="E54" s="3">
         <v>127900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>107900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>103100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>112100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>118900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>125500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>133000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>151700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>183700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>101700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>176100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>112300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>110400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,60 +2880,64 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
@@ -2812,11 +2946,11 @@
         <v>500</v>
       </c>
       <c r="G58" s="3">
+        <v>500</v>
+      </c>
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
@@ -2827,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -2842,104 +2976,113 @@
         <v>100</v>
       </c>
       <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E60" s="3">
         <v>6600</v>
-      </c>
-      <c r="E60" s="3">
-        <v>7800</v>
       </c>
       <c r="F60" s="3">
         <v>7800</v>
       </c>
       <c r="G60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="H60" s="3">
         <v>7500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>5800</v>
       </c>
       <c r="P60" s="3">
         <v>5800</v>
       </c>
       <c r="Q60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="R60" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2953,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
@@ -2971,69 +3114,75 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
+        <v>100</v>
+      </c>
+      <c r="N61" s="3">
         <v>2000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E62" s="3">
         <v>4700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E66" s="3">
         <v>10300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>11800</v>
       </c>
       <c r="F66" s="3">
         <v>11800</v>
       </c>
       <c r="G66" s="3">
+        <v>11800</v>
+      </c>
+      <c r="H66" s="3">
         <v>12600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-300300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-295500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-294100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-296100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-288300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-281800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-273400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-268900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-252400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-222400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-261900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-216900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-283600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-279400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-216300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>124700</v>
+      </c>
+      <c r="E76" s="3">
         <v>117700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>96200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>91300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>99400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>106500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>113000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>117200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>133400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>162800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>93800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>171100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>101000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>100000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-16500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-30000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>39300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-45000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>66700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-63500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,28 +4025,29 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>800</v>
       </c>
       <c r="J83" s="3">
         <v>800</v>
@@ -3860,13 +4059,13 @@
         <v>800</v>
       </c>
       <c r="M83" s="3">
+        <v>800</v>
+      </c>
+      <c r="N83" s="3">
         <v>700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>800</v>
-      </c>
-      <c r="O83" s="3">
-        <v>900</v>
       </c>
       <c r="P83" s="3">
         <v>900</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,13 +4395,14 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4199,10 +4420,10 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
@@ -4214,16 +4435,19 @@
         <v>-200</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>10100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>13500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>9800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>2200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E100" s="3">
         <v>21000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>24600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>4900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
-      </c>
-      <c r="P101" s="3">
-        <v>100</v>
       </c>
       <c r="Q101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E102" s="3">
         <v>23500</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>19900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>20200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>LCTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,137 +665,144 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
-      </c>
-      <c r="E8" s="3">
-        <v>400</v>
       </c>
       <c r="F8" s="3">
         <v>400</v>
       </c>
       <c r="G8" s="3">
+        <v>400</v>
+      </c>
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -828,10 +835,10 @@
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
@@ -839,58 +846,64 @@
       <c r="R9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
-      </c>
-      <c r="E10" s="3">
-        <v>300</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
       </c>
       <c r="G10" s="3">
+        <v>300</v>
+      </c>
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E12" s="3">
         <v>2900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,16 +1026,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-500</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>11</v>
@@ -1032,8 +1052,8 @@
       <c r="I14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1048,45 +1068,48 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-78500</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>800</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3">
         <v>100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>200</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
       </c>
       <c r="H15" s="3">
+        <v>200</v>
+      </c>
+      <c r="I15" s="3">
         <v>300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>600</v>
-      </c>
-      <c r="K15" s="3">
-        <v>500</v>
       </c>
       <c r="L15" s="3">
         <v>500</v>
@@ -1095,10 +1118,10 @@
         <v>500</v>
       </c>
       <c r="N15" s="3">
+        <v>500</v>
+      </c>
+      <c r="O15" s="3">
         <v>400</v>
-      </c>
-      <c r="O15" s="3">
-        <v>600</v>
       </c>
       <c r="P15" s="3">
         <v>600</v>
@@ -1106,11 +1129,14 @@
       <c r="Q15" s="3">
         <v>600</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="3">
+        <v>600</v>
+      </c>
+      <c r="S15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E17" s="3">
         <v>7100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-67200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>68200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-12200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1279,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>47700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-35200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-51500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-67300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-16700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-30500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>35700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-44600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>67300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-62800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,97 +1436,103 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-31300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>34900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-45300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>66500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-63700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-76800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1494,10 +1540,13 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-16500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-30100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>39300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-45000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>66500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-63700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-72100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-30000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>39300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-45000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>66700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-63500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-47700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>35200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>51500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-30000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>39300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-45000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>66700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-63500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-30000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>39300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-45000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>66700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-63500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,158 +2227,168 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E41" s="3">
         <v>62000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>56200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>32600</v>
       </c>
       <c r="G41" s="3">
         <v>32600</v>
       </c>
       <c r="H41" s="3">
+        <v>32600</v>
+      </c>
+      <c r="I41" s="3">
         <v>12700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>18000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>27200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>29800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>36800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E42" s="3">
         <v>6700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>9000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>7600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>15900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>21200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>21300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>24600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>24300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>23900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>23600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>13700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3800</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>3000</v>
       </c>
       <c r="R43" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,108 +2437,117 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1400</v>
       </c>
       <c r="H45" s="3">
         <v>1400</v>
       </c>
       <c r="I45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>68300</v>
+      </c>
+      <c r="E46" s="3">
         <v>71600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>64600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>44000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>39700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>46200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>52300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>57500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>61600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>36400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>36900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>34500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>36100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2471,128 +2576,137 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>59400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>80400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>55800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>129900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>66800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>62400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>117200</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E48" s="3">
         <v>5000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>57600</v>
+        <v>57500</v>
       </c>
       <c r="E49" s="3">
         <v>57600</v>
       </c>
       <c r="F49" s="3">
+        <v>57600</v>
+      </c>
+      <c r="G49" s="3">
         <v>57700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>57800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>58100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>58400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>58900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>61700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>62300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>62800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2706,43 +2826,46 @@
         <v>600</v>
       </c>
       <c r="G52" s="3">
+        <v>600</v>
+      </c>
+      <c r="H52" s="3">
         <v>700</v>
-      </c>
-      <c r="H52" s="3">
-        <v>600</v>
       </c>
       <c r="I52" s="3">
         <v>600</v>
       </c>
       <c r="J52" s="3">
+        <v>600</v>
+      </c>
+      <c r="K52" s="3">
         <v>900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>800</v>
       </c>
       <c r="L52" s="3">
         <v>800</v>
       </c>
       <c r="M52" s="3">
+        <v>800</v>
+      </c>
+      <c r="N52" s="3">
         <v>900</v>
-      </c>
-      <c r="N52" s="3">
-        <v>500</v>
       </c>
       <c r="O52" s="3">
         <v>500</v>
       </c>
       <c r="P52" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q52" s="3">
         <v>200</v>
       </c>
       <c r="R52" s="3">
+        <v>200</v>
+      </c>
+      <c r="S52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>131200</v>
+      </c>
+      <c r="E54" s="3">
         <v>134800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>127900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>107900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>103100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>112100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>118900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>125500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>133000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>151700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>183700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>101700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>176100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>112300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>110400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3011,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2940,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
@@ -2949,11 +3083,11 @@
         <v>500</v>
       </c>
       <c r="H58" s="3">
+        <v>500</v>
+      </c>
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -2964,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -2979,110 +3113,119 @@
         <v>100</v>
       </c>
       <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E59" s="3">
         <v>4000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E60" s="3">
         <v>6800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>7800</v>
       </c>
       <c r="G60" s="3">
         <v>7800</v>
       </c>
       <c r="H60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I60" s="3">
         <v>7500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4500</v>
-      </c>
-      <c r="P60" s="3">
-        <v>5800</v>
       </c>
       <c r="Q60" s="3">
         <v>5800</v>
       </c>
       <c r="R60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="S60" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3099,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
@@ -3117,72 +3260,78 @@
         <v>100</v>
       </c>
       <c r="N61" s="3">
+        <v>100</v>
+      </c>
+      <c r="O61" s="3">
         <v>2000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E62" s="3">
         <v>4400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E66" s="3">
         <v>10000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>11800</v>
       </c>
       <c r="G66" s="3">
         <v>11800</v>
       </c>
       <c r="H66" s="3">
+        <v>11800</v>
+      </c>
+      <c r="I66" s="3">
         <v>12600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-308100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-300300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-295500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-294100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-296100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-288300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-281800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-273400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-268900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-252400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-222400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-261900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-216900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-283600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-279400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-216300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E76" s="3">
         <v>124700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>117700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>96200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>91300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>99400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>106500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>113000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>117200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>133400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>162800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>93800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>171100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>101000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>100000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-30000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>39300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-45000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>66700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-63500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4035,22 +4234,22 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>800</v>
       </c>
       <c r="K83" s="3">
         <v>800</v>
@@ -4062,13 +4261,13 @@
         <v>800</v>
       </c>
       <c r="N83" s="3">
+        <v>800</v>
+      </c>
+      <c r="O83" s="3">
         <v>700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>800</v>
-      </c>
-      <c r="P83" s="3">
-        <v>900</v>
       </c>
       <c r="Q83" s="3">
         <v>900</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4405,7 +4626,7 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4423,10 +4644,10 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
@@ -4438,16 +4659,19 @@
         <v>-200</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4555,49 +4785,52 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>10100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>6700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>5300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>13500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>9800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>2200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E100" s="3">
         <v>11300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>21000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>24600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>4900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4875,95 +5124,101 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>100</v>
       </c>
       <c r="R101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>5800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>23500</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>19900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>20200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>LCTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,147 +665,153 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>400</v>
       </c>
       <c r="G8" s="3">
         <v>400</v>
       </c>
       <c r="H8" s="3">
+        <v>400</v>
+      </c>
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -838,10 +844,10 @@
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
@@ -849,61 +855,67 @@
       <c r="S9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
-      </c>
-      <c r="F10" s="3">
-        <v>300</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
       </c>
       <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E12" s="3">
         <v>2800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1038,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>11</v>
@@ -1055,8 +1074,8 @@
       <c r="J14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1071,19 +1090,22 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-78500</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>800</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1093,26 +1115,26 @@
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>200</v>
       </c>
       <c r="H15" s="3">
         <v>200</v>
       </c>
       <c r="I15" s="3">
+        <v>200</v>
+      </c>
+      <c r="J15" s="3">
         <v>300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>600</v>
-      </c>
-      <c r="L15" s="3">
-        <v>500</v>
       </c>
       <c r="M15" s="3">
         <v>500</v>
@@ -1121,10 +1143,10 @@
         <v>500</v>
       </c>
       <c r="O15" s="3">
+        <v>500</v>
+      </c>
+      <c r="P15" s="3">
         <v>400</v>
-      </c>
-      <c r="P15" s="3">
-        <v>600</v>
       </c>
       <c r="Q15" s="3">
         <v>600</v>
@@ -1132,11 +1154,14 @@
       <c r="R15" s="3">
         <v>600</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="S15" s="3">
+        <v>600</v>
+      </c>
+      <c r="T15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E17" s="3">
         <v>9100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-67200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>68200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-12200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-20500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>47700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-35200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-51500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-67300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-8600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-16700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-30500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>35700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-44600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>67300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-62800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,103 +1478,109 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-31300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>34900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-45300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>66500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-63700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-76800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1543,10 +1588,13 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-16500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-30100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>39300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-45000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>66500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-63700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-72100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-16500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-30000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>39300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-45000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>66700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-63500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>20500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-47700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>35200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>51500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-16500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-30000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>39300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-45000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>66700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-63500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-16500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-30000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>39300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-45000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>66700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-63500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,167 +2313,177 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E41" s="3">
         <v>60800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>62000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>56200</v>
-      </c>
-      <c r="G41" s="3">
-        <v>32600</v>
       </c>
       <c r="H41" s="3">
         <v>32600</v>
       </c>
       <c r="I41" s="3">
+        <v>32600</v>
+      </c>
+      <c r="J41" s="3">
         <v>12700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>23600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>27200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>29800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>36800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E42" s="3">
         <v>4300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>9000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>5500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>7600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>15900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>21200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>21300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>24600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>24300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>23900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>23600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>13700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3800</v>
-      </c>
-      <c r="R43" s="3">
-        <v>3000</v>
       </c>
       <c r="S43" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,114 +2535,123 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E45" s="3">
         <v>3200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1400</v>
       </c>
       <c r="I45" s="3">
         <v>1400</v>
       </c>
       <c r="J45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K45" s="3">
         <v>2200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>111500</v>
+      </c>
+      <c r="E46" s="3">
         <v>68300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>71600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>64600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>44000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>39700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>46200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>52300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>57500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>61600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>36400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>36900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>34500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>36100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2579,81 +2683,87 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>59400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>80400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>55800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>129900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>66800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>62400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>117200</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E48" s="3">
         <v>4700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2661,52 +2771,55 @@
         <v>57500</v>
       </c>
       <c r="E49" s="3">
-        <v>57600</v>
+        <v>57500</v>
       </c>
       <c r="F49" s="3">
         <v>57600</v>
       </c>
       <c r="G49" s="3">
+        <v>57600</v>
+      </c>
+      <c r="H49" s="3">
         <v>57700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>57800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>58100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>58400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>58900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>61700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>62300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>62800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2829,43 +2948,46 @@
         <v>600</v>
       </c>
       <c r="H52" s="3">
+        <v>600</v>
+      </c>
+      <c r="I52" s="3">
         <v>700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>600</v>
       </c>
       <c r="J52" s="3">
         <v>600</v>
       </c>
       <c r="K52" s="3">
+        <v>600</v>
+      </c>
+      <c r="L52" s="3">
         <v>900</v>
-      </c>
-      <c r="L52" s="3">
-        <v>800</v>
       </c>
       <c r="M52" s="3">
         <v>800</v>
       </c>
       <c r="N52" s="3">
+        <v>800</v>
+      </c>
+      <c r="O52" s="3">
         <v>900</v>
-      </c>
-      <c r="O52" s="3">
-        <v>500</v>
       </c>
       <c r="P52" s="3">
         <v>500</v>
       </c>
       <c r="Q52" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="R52" s="3">
         <v>200</v>
       </c>
       <c r="S52" s="3">
+        <v>200</v>
+      </c>
+      <c r="T52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>174500</v>
+      </c>
+      <c r="E54" s="3">
         <v>131200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>134800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>127900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>107900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>103100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>112100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>118900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>125500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>133000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>151700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>183700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>101700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>176100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>112300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>110400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3021,52 +3151,55 @@
         <v>3500</v>
       </c>
       <c r="E57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3077,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>500</v>
@@ -3086,11 +3219,11 @@
         <v>500</v>
       </c>
       <c r="I58" s="3">
+        <v>500</v>
+      </c>
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -3101,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -3116,116 +3249,125 @@
         <v>100</v>
       </c>
       <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E59" s="3">
         <v>5300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E60" s="3">
         <v>8800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>7800</v>
       </c>
       <c r="H60" s="3">
         <v>7800</v>
       </c>
       <c r="I60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J60" s="3">
         <v>7500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4500</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>5800</v>
       </c>
       <c r="R60" s="3">
         <v>5800</v>
       </c>
       <c r="S60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="T60" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3245,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
@@ -3263,75 +3405,81 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
+        <v>100</v>
+      </c>
+      <c r="P61" s="3">
         <v>2000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E62" s="3">
         <v>2800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>82300</v>
+      </c>
+      <c r="E66" s="3">
         <v>10500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>11800</v>
       </c>
       <c r="H66" s="3">
         <v>11800</v>
       </c>
       <c r="I66" s="3">
+        <v>11800</v>
+      </c>
+      <c r="J66" s="3">
         <v>12600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-337100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-308100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-300300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-295500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-294100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-296100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-288300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-281800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-273400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-268900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-252400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-222400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-261900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-216900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-283600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-279400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-216300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E76" s="3">
         <v>120700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>124700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>117700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>96200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>91300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>99400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>106500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>113000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>117200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>133400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>162800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>93800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>171100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>101000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>100000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-16500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-30000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>39300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-45000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>66700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-63500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4237,22 +4435,22 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>800</v>
       </c>
       <c r="L83" s="3">
         <v>800</v>
@@ -4264,13 +4462,13 @@
         <v>800</v>
       </c>
       <c r="O83" s="3">
+        <v>800</v>
+      </c>
+      <c r="P83" s="3">
         <v>700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>800</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>900</v>
       </c>
       <c r="R83" s="3">
         <v>900</v>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-10300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4629,7 +4849,7 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4647,10 +4867,10 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-200</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
@@ -4662,16 +4882,19 @@
         <v>-200</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4788,49 +5017,52 @@
         <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>10100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>6700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>5300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>13500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>9800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>2200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>3700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>11300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>21000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>24600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>4900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5127,98 +5375,104 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
-      </c>
-      <c r="R101" s="3">
-        <v>100</v>
       </c>
       <c r="S101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>23500</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>19900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>20200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>LCTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,152 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>400</v>
       </c>
       <c r="H8" s="3">
         <v>400</v>
       </c>
       <c r="I8" s="3">
+        <v>400</v>
+      </c>
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,10 +818,10 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
         <v>1000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -847,10 +854,10 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
@@ -858,64 +865,70 @@
       <c r="T9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>300</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="3">
         <v>24800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,22 +1065,25 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-500</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>11</v>
@@ -1077,8 +1097,8 @@
       <c r="K14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1093,19 +1113,22 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-78500</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>800</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,26 +1141,26 @@
       <c r="F15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="3">
         <v>100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>200</v>
       </c>
       <c r="I15" s="3">
         <v>200</v>
       </c>
       <c r="J15" s="3">
+        <v>200</v>
+      </c>
+      <c r="K15" s="3">
         <v>300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>500</v>
       </c>
       <c r="N15" s="3">
         <v>500</v>
@@ -1146,10 +1169,10 @@
         <v>500</v>
       </c>
       <c r="P15" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q15" s="3">
         <v>400</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>600</v>
       </c>
       <c r="R15" s="3">
         <v>600</v>
@@ -1157,11 +1180,14 @@
       <c r="S15" s="3">
         <v>600</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="T15" s="3">
+        <v>600</v>
+      </c>
+      <c r="U15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3">
         <v>29400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>-67200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="3">
         <v>-28200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>68200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-12200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-20500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>47700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-51500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-67300</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3">
         <v>-27800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-8600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-16700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-30500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>35700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-44600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>67300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-62800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,109 +1521,115 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-31300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>34900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-45300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>66500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-63700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-76800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1591,10 +1637,13 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="3">
         <v>-29200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-16500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-30100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>39300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>66500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-63700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-72100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="3">
         <v>-29000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-16500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-30000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>39300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>66700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-63500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>20500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-47700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>35200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>51500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="3">
         <v>-29000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-16500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-30000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>39300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>66700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-63500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="3">
         <v>-29000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-16500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-30000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>39300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>66700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-63500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,176 +2400,186 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E41" s="3">
         <v>55700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>60800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>62000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>56200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>32600</v>
       </c>
       <c r="I41" s="3">
         <v>32600</v>
       </c>
       <c r="J41" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K41" s="3">
         <v>12700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>18000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>23600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>27200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>29800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>36800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E42" s="3">
         <v>2600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>6200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>9000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>5500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>7600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>15900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>21200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>21300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>50800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>24600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>23900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>23600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>13700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3800</v>
-      </c>
-      <c r="S43" s="3">
-        <v>3000</v>
       </c>
       <c r="T43" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,120 +2634,129 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1400</v>
       </c>
       <c r="J45" s="3">
         <v>1400</v>
       </c>
       <c r="K45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>81900</v>
+      </c>
+      <c r="E46" s="3">
         <v>111500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>68300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>71600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>64600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>44000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>39700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>46200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>52300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>57500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>61600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>36400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>36900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>34500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>36100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2686,84 +2791,90 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>59400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>80400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>55800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>129900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>66800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>62400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>117200</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E48" s="3">
         <v>4900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2774,52 +2885,55 @@
         <v>57500</v>
       </c>
       <c r="F49" s="3">
-        <v>57600</v>
+        <v>57500</v>
       </c>
       <c r="G49" s="3">
         <v>57600</v>
       </c>
       <c r="H49" s="3">
+        <v>57600</v>
+      </c>
+      <c r="I49" s="3">
         <v>57700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>57800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>58100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>58400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>58900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>61700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>62300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>62800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2951,43 +3071,46 @@
         <v>600</v>
       </c>
       <c r="I52" s="3">
+        <v>600</v>
+      </c>
+      <c r="J52" s="3">
         <v>700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>600</v>
       </c>
       <c r="K52" s="3">
         <v>600</v>
       </c>
       <c r="L52" s="3">
+        <v>600</v>
+      </c>
+      <c r="M52" s="3">
         <v>900</v>
-      </c>
-      <c r="M52" s="3">
-        <v>800</v>
       </c>
       <c r="N52" s="3">
         <v>800</v>
       </c>
       <c r="O52" s="3">
+        <v>800</v>
+      </c>
+      <c r="P52" s="3">
         <v>900</v>
-      </c>
-      <c r="P52" s="3">
-        <v>500</v>
       </c>
       <c r="Q52" s="3">
         <v>500</v>
       </c>
       <c r="R52" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="S52" s="3">
         <v>200</v>
       </c>
       <c r="T52" s="3">
+        <v>200</v>
+      </c>
+      <c r="U52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>144500</v>
+      </c>
+      <c r="E54" s="3">
         <v>174500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>131200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>134800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>127900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>107900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>103100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>112100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>118900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>125500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>133000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>151700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>183700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>101700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>176100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>112300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>110400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="E57" s="3">
         <v>3500</v>
       </c>
       <c r="F57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3213,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>500</v>
@@ -3222,11 +3356,11 @@
         <v>500</v>
       </c>
       <c r="J58" s="3">
+        <v>500</v>
+      </c>
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -3237,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
@@ -3252,122 +3386,131 @@
         <v>100</v>
       </c>
       <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E59" s="3">
         <v>43500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E60" s="3">
         <v>47100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>7800</v>
       </c>
       <c r="I60" s="3">
         <v>7800</v>
       </c>
       <c r="J60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K60" s="3">
         <v>7500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4500</v>
-      </c>
-      <c r="R60" s="3">
-        <v>5800</v>
       </c>
       <c r="S60" s="3">
         <v>5800</v>
       </c>
       <c r="T60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="U60" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3390,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -3408,78 +3551,84 @@
         <v>100</v>
       </c>
       <c r="P61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q61" s="3">
         <v>2000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E62" s="3">
         <v>36500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E66" s="3">
         <v>82300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>11800</v>
       </c>
       <c r="I66" s="3">
         <v>11800</v>
       </c>
       <c r="J66" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K66" s="3">
         <v>12600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-344200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-337100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-308100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-300300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-295500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-294100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-296100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-288300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-281800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-273400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-268900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-252400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-222400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-261900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-216900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-283600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-279400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-216300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>86500</v>
+      </c>
+      <c r="E76" s="3">
         <v>92200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>120700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>124700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>117700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>96200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>91300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>99400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>106500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>113000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>117200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>133400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>162800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>93800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>171100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>101000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>100000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="3">
         <v>-29000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-16500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-30000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>39300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>66700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-63500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4438,22 +4637,22 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>800</v>
       </c>
       <c r="M83" s="3">
         <v>800</v>
@@ -4465,13 +4664,13 @@
         <v>800</v>
       </c>
       <c r="P83" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q83" s="3">
         <v>700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>800</v>
-      </c>
-      <c r="R83" s="3">
-        <v>900</v>
       </c>
       <c r="S83" s="3">
         <v>900</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-10300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,13 +5057,14 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -4852,7 +5073,7 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4870,10 +5091,10 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-200</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
@@ -4885,16 +5106,19 @@
         <v>-200</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,13 +5232,16 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
@@ -5020,49 +5250,52 @@
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
         <v>10100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>6700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>13500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>9800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>2200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>11300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>21000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>24600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
-      </c>
-      <c r="P100" s="3">
-        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>4900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5378,101 +5627,107 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
-      </c>
-      <c r="S101" s="3">
-        <v>100</v>
       </c>
       <c r="T101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>23500</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>19900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>20200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>LCTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,159 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E8" s="3">
         <v>5200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>400</v>
       </c>
       <c r="I8" s="3">
         <v>400</v>
       </c>
       <c r="J8" s="3">
+        <v>400</v>
+      </c>
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -821,10 +828,10 @@
         <v>200</v>
       </c>
       <c r="F9" s="3">
+        <v>200</v>
+      </c>
+      <c r="G9" s="3">
         <v>1000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -857,10 +864,10 @@
         <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
@@ -868,67 +875,73 @@
       <c r="U9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E10" s="3">
         <v>5000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>300</v>
       </c>
       <c r="I10" s="3">
         <v>300</v>
       </c>
       <c r="J10" s="3">
+        <v>300</v>
+      </c>
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E12" s="3">
         <v>3000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>5400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,25 +1085,28 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>11</v>
@@ -1100,8 +1120,8 @@
       <c r="L14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1116,19 +1136,22 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-78500</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>800</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1144,26 +1167,26 @@
       <c r="G15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="3">
         <v>100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>200</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
       </c>
       <c r="K15" s="3">
+        <v>200</v>
+      </c>
+      <c r="L15" s="3">
         <v>300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>600</v>
-      </c>
-      <c r="N15" s="3">
-        <v>500</v>
       </c>
       <c r="O15" s="3">
         <v>500</v>
@@ -1172,10 +1195,10 @@
         <v>500</v>
       </c>
       <c r="Q15" s="3">
+        <v>500</v>
+      </c>
+      <c r="R15" s="3">
         <v>400</v>
-      </c>
-      <c r="R15" s="3">
-        <v>600</v>
       </c>
       <c r="S15" s="3">
         <v>600</v>
@@ -1183,11 +1206,14 @@
       <c r="T15" s="3">
         <v>600</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="U15" s="3">
+        <v>600</v>
+      </c>
+      <c r="V15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
+      <c r="D17" s="3">
+        <v>8800</v>
       </c>
       <c r="E17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F17" s="3">
         <v>29400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>-67200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>11</v>
+      <c r="D18" s="3">
+        <v>-4200</v>
       </c>
       <c r="E18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-28200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>68200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-9200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-12200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1380,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>11</v>
+      <c r="D20" s="3">
+        <v>-2600</v>
       </c>
       <c r="E20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-20500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>47700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-35200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-51500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-67300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>11</v>
+      <c r="D21" s="3">
+        <v>-6600</v>
       </c>
       <c r="E21" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-27800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-16700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-30500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>35700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-44600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>67300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-62800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-28000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-31300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>34900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-45300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>66500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-63700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-76800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1592,47 +1638,47 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1640,10 +1686,13 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>11</v>
+      <c r="D26" s="3">
+        <v>-6800</v>
       </c>
       <c r="E26" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-29200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-16500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-30100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>39300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-45000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>66500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-63700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-72100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>11</v>
+      <c r="D27" s="3">
+        <v>-6800</v>
       </c>
       <c r="E27" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-29000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-16500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-30000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>39300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-45000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>66700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-63500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>11</v>
+      <c r="D32" s="3">
+        <v>2600</v>
       </c>
       <c r="E32" s="3">
+        <v>700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>20500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-47700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>35200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>51500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>11</v>
+      <c r="D33" s="3">
+        <v>-6800</v>
       </c>
       <c r="E33" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-29000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-16500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-30000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>39300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-45000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>66700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-63500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>11</v>
+      <c r="D35" s="3">
+        <v>-6800</v>
       </c>
       <c r="E35" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-29000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-16500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-30000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>39300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-45000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>66700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-63500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,185 +2487,195 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>70900</v>
+      </c>
+      <c r="E41" s="3">
         <v>78100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>55700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>60800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>62000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>56200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>32600</v>
       </c>
       <c r="J41" s="3">
         <v>32600</v>
       </c>
       <c r="K41" s="3">
+        <v>32600</v>
+      </c>
+      <c r="L41" s="3">
         <v>12700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>18000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>27200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>29800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>36800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E42" s="3">
         <v>1900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>6700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>6200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>9000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>5500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>15900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>21200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>21300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>8500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>9100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>50800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>23900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>23600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>13700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3800</v>
-      </c>
-      <c r="T43" s="3">
-        <v>3000</v>
       </c>
       <c r="U43" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,126 +2733,135 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1400</v>
       </c>
       <c r="K45" s="3">
         <v>1400</v>
       </c>
       <c r="L45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M45" s="3">
         <v>2200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E46" s="3">
         <v>81900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>111500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>68300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>71600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>64600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>44000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>39700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>46200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>52300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>57500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>61600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>30700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>36400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>36900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>34500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>36100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2794,92 +2899,98 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>59400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>80400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>55800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>129900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>66800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>62400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>117200</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E48" s="3">
         <v>4500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>57500</v>
+        <v>57400</v>
       </c>
       <c r="E49" s="3">
         <v>57500</v>
@@ -2888,52 +2999,55 @@
         <v>57500</v>
       </c>
       <c r="G49" s="3">
-        <v>57600</v>
+        <v>57500</v>
       </c>
       <c r="H49" s="3">
         <v>57600</v>
       </c>
       <c r="I49" s="3">
+        <v>57600</v>
+      </c>
+      <c r="J49" s="3">
         <v>57700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>57800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>58100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>58400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>58900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>61700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>62300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>62800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3074,43 +3194,46 @@
         <v>600</v>
       </c>
       <c r="J52" s="3">
+        <v>600</v>
+      </c>
+      <c r="K52" s="3">
         <v>700</v>
-      </c>
-      <c r="K52" s="3">
-        <v>600</v>
       </c>
       <c r="L52" s="3">
         <v>600</v>
       </c>
       <c r="M52" s="3">
+        <v>600</v>
+      </c>
+      <c r="N52" s="3">
         <v>900</v>
-      </c>
-      <c r="N52" s="3">
-        <v>800</v>
       </c>
       <c r="O52" s="3">
         <v>800</v>
       </c>
       <c r="P52" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q52" s="3">
         <v>900</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>500</v>
       </c>
       <c r="R52" s="3">
         <v>500</v>
       </c>
       <c r="S52" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="T52" s="3">
         <v>200</v>
       </c>
       <c r="U52" s="3">
+        <v>200</v>
+      </c>
+      <c r="V52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>135900</v>
+      </c>
+      <c r="E54" s="3">
         <v>144500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>174500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>131200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>134800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>127900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>107900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>103100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>112100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>118900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>125500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>133000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>151700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>183700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>101700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>176100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>112300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>110400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3403,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>3500</v>
       </c>
       <c r="F57" s="3">
         <v>3500</v>
       </c>
       <c r="G57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3350,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>500</v>
@@ -3359,11 +3493,11 @@
         <v>500</v>
       </c>
       <c r="K58" s="3">
+        <v>500</v>
+      </c>
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
@@ -3374,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
@@ -3389,128 +3523,137 @@
         <v>100</v>
       </c>
       <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E59" s="3">
         <v>21600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>43500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E60" s="3">
         <v>24600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>47100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6600</v>
-      </c>
-      <c r="I60" s="3">
-        <v>7800</v>
       </c>
       <c r="J60" s="3">
         <v>7800</v>
       </c>
       <c r="K60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="L60" s="3">
         <v>7500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4500</v>
-      </c>
-      <c r="S60" s="3">
-        <v>5800</v>
       </c>
       <c r="T60" s="3">
         <v>5800</v>
       </c>
       <c r="U60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="V60" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3536,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
@@ -3554,81 +3697,87 @@
         <v>100</v>
       </c>
       <c r="Q61" s="3">
+        <v>100</v>
+      </c>
+      <c r="R61" s="3">
         <v>2000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E62" s="3">
         <v>34700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>36500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E66" s="3">
         <v>58000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>82300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>11800</v>
       </c>
       <c r="J66" s="3">
         <v>11800</v>
       </c>
       <c r="K66" s="3">
+        <v>11800</v>
+      </c>
+      <c r="L66" s="3">
         <v>12600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-350900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-344200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-337100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-308100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-300300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-295500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-294100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-296100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-288300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-281800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-273400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-268900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-252400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-222400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-261900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-216900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-283600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-279400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-216300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>82800</v>
+      </c>
+      <c r="E76" s="3">
         <v>86500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>92200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>120700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>124700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>117700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>96200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>91300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>99400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>106500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>113000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>117200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>133400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>162800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>93800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>171100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>101000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>100000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>11</v>
+      <c r="D81" s="3">
+        <v>-6800</v>
       </c>
       <c r="E81" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-29000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-16500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-30000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>39300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-45000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>66700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-63500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4640,22 +4839,22 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>700</v>
-      </c>
-      <c r="M83" s="3">
-        <v>800</v>
       </c>
       <c r="N83" s="3">
         <v>800</v>
@@ -4667,13 +4866,13 @@
         <v>800</v>
       </c>
       <c r="Q83" s="3">
+        <v>800</v>
+      </c>
+      <c r="R83" s="3">
         <v>700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>800</v>
-      </c>
-      <c r="S83" s="3">
-        <v>900</v>
       </c>
       <c r="T83" s="3">
         <v>900</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E89" s="3">
         <v>21900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-7400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-10300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,16 +5278,17 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -5076,7 +5297,7 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5094,10 +5315,10 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-200</v>
       </c>
       <c r="P91" s="3">
         <v>-200</v>
@@ -5109,16 +5330,19 @@
         <v>-200</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,16 +5462,19 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
@@ -5253,49 +5483,52 @@
         <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
         <v>10100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>6700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>13500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>9800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>2200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,72 +5796,78 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>11300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>21000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>24600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>4900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -5630,104 +5879,110 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
-      </c>
-      <c r="T101" s="3">
-        <v>100</v>
       </c>
       <c r="U101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E102" s="3">
         <v>22300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>23500</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>19900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-7400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>20200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>LCTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,164 +665,177 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F8" s="3">
         <v>4600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>5200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>600</v>
       </c>
       <c r="L8" s="3">
         <v>400</v>
       </c>
       <c r="M8" s="3">
+        <v>600</v>
+      </c>
+      <c r="N8" s="3">
+        <v>400</v>
+      </c>
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
-      </c>
-      <c r="P8" s="3">
-        <v>800</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>900</v>
       </c>
       <c r="R8" s="3">
         <v>800</v>
       </c>
       <c r="S8" s="3">
+        <v>900</v>
+      </c>
+      <c r="T8" s="3">
+        <v>800</v>
+      </c>
+      <c r="U8" s="3">
         <v>1000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
@@ -831,13 +844,13 @@
         <v>200</v>
       </c>
       <c r="G9" s="3">
+        <v>200</v>
+      </c>
+      <c r="H9" s="3">
+        <v>200</v>
+      </c>
+      <c r="I9" s="3">
         <v>1000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -867,81 +880,93 @@
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F10" s="3">
         <v>4400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>5000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>300</v>
-      </c>
-      <c r="K10" s="3">
-        <v>500</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
       </c>
       <c r="M10" s="3">
+        <v>500</v>
+      </c>
+      <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
-      </c>
-      <c r="P10" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>800</v>
       </c>
       <c r="R10" s="3">
         <v>700</v>
       </c>
       <c r="S10" s="3">
+        <v>800</v>
+      </c>
+      <c r="T10" s="3">
+        <v>700</v>
+      </c>
+      <c r="U10" s="3">
         <v>1000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,70 +989,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F12" s="3">
         <v>3300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>3000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>24800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>2800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>2900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>3300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>2400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>2500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>2800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>2900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>3800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>4800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>4500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>3400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>4300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>5800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>5400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,31 +1121,37 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-500</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>11</v>
@@ -1123,11 +1162,11 @@
       <c r="M14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1139,19 +1178,25 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-78500</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>800</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1170,50 +1215,56 @@
       <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>300</v>
-      </c>
-      <c r="M15" s="3">
-        <v>500</v>
-      </c>
-      <c r="N15" s="3">
-        <v>600</v>
       </c>
       <c r="O15" s="3">
         <v>500</v>
       </c>
       <c r="P15" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q15" s="3">
         <v>500</v>
       </c>
       <c r="R15" s="3">
+        <v>500</v>
+      </c>
+      <c r="S15" s="3">
+        <v>500</v>
+      </c>
+      <c r="T15" s="3">
         <v>400</v>
-      </c>
-      <c r="S15" s="3">
-        <v>600</v>
-      </c>
-      <c r="T15" s="3">
-        <v>600</v>
       </c>
       <c r="U15" s="3">
         <v>600</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="V15" s="3">
+        <v>600</v>
+      </c>
+      <c r="W15" s="3">
+        <v>600</v>
+      </c>
+      <c r="X15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F17" s="3">
         <v>8800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>11600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>29400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>7400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>8100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>9000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>11600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>13700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>11000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>-67200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>11700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>12900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-6400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-28200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-6800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-6600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-7000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-6700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-6400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-7500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-6900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-8400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-12800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-10200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>68200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-9200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-12200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,132 +1446,146 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>5600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>6800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-9100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>47700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-35200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>4500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-51500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-67300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-6600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-6900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-27800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-8600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-4800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-7500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-6000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-7700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-4500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-16700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>35700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-44600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>67300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-3800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-62800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,132 +1646,150 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-7100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-28000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-8800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-5000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-8000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-6500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-8400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-5300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-17500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-31300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>34900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-45300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>66500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-4600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-63700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-76800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-4400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-300</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-7100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-29200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-7800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-6500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-8400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-4600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-16500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-30100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>39300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-45000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>66500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-4600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-63700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-72100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-7100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-29000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-7800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-6500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-8400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-4500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-16500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>39300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-45000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>66700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-4200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-63500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-5600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-6800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>9100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>20500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-47700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>35200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-4500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>51500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-7100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-29000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-7800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-7800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-8400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-16500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>39300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-45000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>66700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-4200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-63500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-7100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-29000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-7800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-7800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-8400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-16500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>39300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-45000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>66700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-4200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-63500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,194 +2659,214 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F41" s="3">
         <v>70900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>78100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>55700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>60800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>62000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>56200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>32600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>32600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>12700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>9800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>9500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>14400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>8200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>18000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>23600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>19500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>27200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>29800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>36800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>41600</v>
+      </c>
+      <c r="F42" s="3">
         <v>1200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>1900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>2600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>4300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>6700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>6200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>9000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>5500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>7600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>15900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>21200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>21300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>8500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>9100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>7200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>2000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>1600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>50800</v>
-      </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>24600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>24300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>23900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>23600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>3700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>13700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>3800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>3000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,132 +2927,150 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>68500</v>
+      </c>
+      <c r="F46" s="3">
         <v>74000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>81900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>111500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>68300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>71600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>64600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>44000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>39700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>46200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>52300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>57500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>61600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>20500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>30700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>36400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>36900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>34500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>36100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2902,90 +3111,102 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>59400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>80400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>55800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>129900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>66800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>62400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>117200</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F48" s="3">
         <v>3900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>7100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>7500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>8200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>8800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>8700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>8900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>5800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>5100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>5000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>5400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2993,61 +3214,67 @@
         <v>57400</v>
       </c>
       <c r="E49" s="3">
-        <v>57500</v>
+        <v>57400</v>
       </c>
       <c r="F49" s="3">
-        <v>57500</v>
+        <v>57400</v>
       </c>
       <c r="G49" s="3">
         <v>57500</v>
       </c>
       <c r="H49" s="3">
+        <v>57500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>57500</v>
+      </c>
+      <c r="J49" s="3">
         <v>57600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>57600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>57700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>57800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>58100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>58400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>58900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>61700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>62300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>62800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>3100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>3600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>5700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>6300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3197,43 +3436,49 @@
         <v>600</v>
       </c>
       <c r="K52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L52" s="3">
         <v>600</v>
       </c>
       <c r="M52" s="3">
+        <v>700</v>
+      </c>
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
+        <v>600</v>
+      </c>
+      <c r="P52" s="3">
         <v>900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>131100</v>
+      </c>
+      <c r="F54" s="3">
         <v>135900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>144500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>174500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>131200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>134800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>127900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>107900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>103100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>112100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>118900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>125500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>133000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>151700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>183700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>101700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>176100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>112300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>110400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,70 +3663,78 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2400</v>
-      </c>
-      <c r="S57" s="3">
-        <v>700</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1200</v>
       </c>
       <c r="U57" s="3">
         <v>700</v>
       </c>
       <c r="V57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W57" s="3">
+        <v>700</v>
+      </c>
+      <c r="X57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3487,23 +3754,23 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>500</v>
       </c>
       <c r="L58" s="3">
+        <v>500</v>
+      </c>
+      <c r="M58" s="3">
+        <v>500</v>
+      </c>
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
@@ -3511,10 +3778,10 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
@@ -3526,139 +3793,157 @@
         <v>100</v>
       </c>
       <c r="V58" s="3">
+        <v>100</v>
+      </c>
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+      <c r="X58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F59" s="3">
         <v>22500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>21600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>43500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>5000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>7300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>4400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>5000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F60" s="3">
         <v>25100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>24600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>47100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>8800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>8700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>6800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>5800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>5800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3682,10 +3967,10 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
@@ -3700,84 +3985,96 @@
         <v>100</v>
       </c>
       <c r="R61" s="3">
+        <v>100</v>
+      </c>
+      <c r="S61" s="3">
+        <v>100</v>
+      </c>
+      <c r="T61" s="3">
         <v>2000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>30800</v>
+      </c>
+      <c r="F62" s="3">
         <v>29300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>34700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>36500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>4400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>4700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>5000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>5100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>6800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>7100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>7700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>11200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>12000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>13700</v>
-      </c>
-      <c r="R62" s="3">
-        <v>600</v>
-      </c>
-      <c r="S62" s="3">
-        <v>700</v>
       </c>
       <c r="T62" s="3">
         <v>600</v>
       </c>
       <c r="U62" s="3">
+        <v>700</v>
+      </c>
+      <c r="V62" s="3">
+        <v>600</v>
+      </c>
+      <c r="W62" s="3">
         <v>1000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>52200</v>
+      </c>
+      <c r="F66" s="3">
         <v>53100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>58000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>82300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>10500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>10000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>11800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>12400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>12500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>15800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>18300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>20900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>11300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>10400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>363400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-357000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-350900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-344200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-337100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-308100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-300300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-295500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-294100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-296100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-288300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-281800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-273400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-268900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-252400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-222400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-261900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-216900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-283600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-279400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-216300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>78900</v>
+      </c>
+      <c r="F76" s="3">
         <v>82800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>86500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>92200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>120700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>124700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>117700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>96200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>91300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>99400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>106500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>113000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>117200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>133400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>162800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>93800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>171100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>101000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>100000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-7100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-29000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-7800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-7800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-8400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-16500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>39300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-45000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>66700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-4200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-63500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4842,25 +5239,25 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>800</v>
-      </c>
-      <c r="O83" s="3">
-        <v>800</v>
       </c>
       <c r="P83" s="3">
         <v>800</v>
@@ -4869,22 +5266,28 @@
         <v>800</v>
       </c>
       <c r="R83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="S83" s="3">
         <v>800</v>
       </c>
       <c r="T83" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="U83" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="V83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>900</v>
+      </c>
+      <c r="X83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>21900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-5900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-4800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-5400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-7400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-5600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-4800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-5000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-5500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-7400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-9300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-5800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-7300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-7400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-10300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,31 +5718,33 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-100</v>
+      <c r="D91" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5318,13 +5759,13 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-200</v>
       </c>
       <c r="R91" s="3">
         <v>-200</v>
@@ -5333,16 +5774,22 @@
         <v>-200</v>
       </c>
       <c r="T91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="U91" s="3">
         <v>-200</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>87200</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-40900</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
         <v>10100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>6700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>5300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>13500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>2900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>9800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>2200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6284,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>3700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>11300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>21000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>24600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>4900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5870,10 +6367,10 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -5882,107 +6379,119 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N101" s="3">
         <v>-100</v>
       </c>
       <c r="O101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-7200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>22300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>5800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>23500</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>19900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-4900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>6200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-5700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>4100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-7300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-2600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-7400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>20200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>LCTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,179 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
-      </c>
-      <c r="K8" s="3">
-        <v>400</v>
       </c>
       <c r="L8" s="3">
         <v>400</v>
       </c>
       <c r="M8" s="3">
+        <v>400</v>
+      </c>
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,7 +845,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
@@ -850,10 +857,10 @@
         <v>200</v>
       </c>
       <c r="I9" s="3">
+        <v>200</v>
+      </c>
+      <c r="J9" s="3">
         <v>1000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -886,10 +893,10 @@
         <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
         <v>100</v>
@@ -897,76 +904,82 @@
       <c r="X9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
-      </c>
-      <c r="K10" s="3">
-        <v>300</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
       </c>
       <c r="M10" s="3">
+        <v>300</v>
+      </c>
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E12" s="3">
         <v>4100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>5800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>5400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1141,20 +1161,20 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-500</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>11</v>
@@ -1168,8 +1188,8 @@
       <c r="O14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1184,19 +1204,22 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-78500</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>800</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1221,26 +1244,26 @@
       <c r="J15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>200</v>
       </c>
       <c r="M15" s="3">
         <v>200</v>
       </c>
       <c r="N15" s="3">
+        <v>200</v>
+      </c>
+      <c r="O15" s="3">
         <v>300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>600</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>500</v>
       </c>
       <c r="R15" s="3">
         <v>500</v>
@@ -1249,10 +1272,10 @@
         <v>500</v>
       </c>
       <c r="T15" s="3">
+        <v>500</v>
+      </c>
+      <c r="U15" s="3">
         <v>400</v>
-      </c>
-      <c r="U15" s="3">
-        <v>600</v>
       </c>
       <c r="V15" s="3">
         <v>600</v>
@@ -1260,11 +1283,14 @@
       <c r="W15" s="3">
         <v>600</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="X15" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
+      <c r="D17" s="3">
+        <v>9000</v>
       </c>
       <c r="E17" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F17" s="3">
         <v>8200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>-67200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>12900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>11</v>
+      <c r="D18" s="3">
+        <v>-6600</v>
       </c>
       <c r="E18" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-28200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-10800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-12800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-10200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>68200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-9200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-12200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1481,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>11</v>
+      <c r="D20" s="3">
+        <v>400</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-9100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-20500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>47700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-35200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-51500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-67300</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>11</v>
+      <c r="D21" s="3">
+        <v>-6000</v>
       </c>
       <c r="E21" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-27800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-8600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-16700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-30500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>35700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-44600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>67300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-62800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,133 +1692,139 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-28000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-17500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-31300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>34900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-45300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>66500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-63700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-76800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="3">
-        <v>500</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-4400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-300</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
@@ -1786,10 +1832,13 @@
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>11</v>
+      <c r="D26" s="3">
+        <v>-4400</v>
       </c>
       <c r="E26" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-29200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-16500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-30100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>39300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-45000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>66500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-63700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-72100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>11</v>
+      <c r="D27" s="3">
+        <v>-4400</v>
       </c>
       <c r="E27" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-29000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-16500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-30000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>39300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-45000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>66700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-63500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>11</v>
+      <c r="D32" s="3">
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>9100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>20500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-47700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>35200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>51500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>11</v>
+      <c r="D33" s="3">
+        <v>-4400</v>
       </c>
       <c r="E33" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-29000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-16500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-30000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>39300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-45000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>66700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-63500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>11</v>
+      <c r="D35" s="3">
+        <v>-4400</v>
       </c>
       <c r="E35" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-29000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-16500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-30000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>39300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-45000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>66700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-63500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,212 +2747,222 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E41" s="3">
         <v>11400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>70900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>78100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>55700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>60800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>62000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>56200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>32600</v>
       </c>
       <c r="M41" s="3">
         <v>32600</v>
       </c>
       <c r="N41" s="3">
+        <v>32600</v>
+      </c>
+      <c r="O41" s="3">
         <v>12700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>18000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>23600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>19500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>27200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>29800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>36800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E42" s="3">
         <v>46500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>41600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>4300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>6700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>15900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>21200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>21300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>8500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>9100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>7200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>50800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>24600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>24300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>23900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>23600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>13700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3800</v>
-      </c>
-      <c r="W43" s="3">
-        <v>3000</v>
       </c>
       <c r="X43" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,144 +3029,153 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1400</v>
       </c>
       <c r="N45" s="3">
         <v>1400</v>
       </c>
       <c r="O45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P45" s="3">
         <v>2200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E46" s="3">
         <v>60000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>68500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>74000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>81900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>111500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>68300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>71600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>64600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>44000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>39700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>46200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>52300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>57500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>61600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>20500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>30700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>36400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>36900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>34500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>36100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3117,101 +3222,107 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>59400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>80400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>55800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>129900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>66800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>62400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>117200</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E48" s="3">
         <v>5700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>57400</v>
+        <v>57300</v>
       </c>
       <c r="E49" s="3">
         <v>57400</v>
@@ -3220,7 +3331,7 @@
         <v>57400</v>
       </c>
       <c r="G49" s="3">
-        <v>57500</v>
+        <v>57400</v>
       </c>
       <c r="H49" s="3">
         <v>57500</v>
@@ -3229,52 +3340,55 @@
         <v>57500</v>
       </c>
       <c r="J49" s="3">
-        <v>57600</v>
+        <v>57500</v>
       </c>
       <c r="K49" s="3">
         <v>57600</v>
       </c>
       <c r="L49" s="3">
+        <v>57600</v>
+      </c>
+      <c r="M49" s="3">
         <v>57700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>57800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>58100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>58400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>58900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>61700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>62300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>62800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3442,43 +3562,46 @@
         <v>600</v>
       </c>
       <c r="M52" s="3">
+        <v>600</v>
+      </c>
+      <c r="N52" s="3">
         <v>700</v>
-      </c>
-      <c r="N52" s="3">
-        <v>600</v>
       </c>
       <c r="O52" s="3">
         <v>600</v>
       </c>
       <c r="P52" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q52" s="3">
         <v>900</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>800</v>
       </c>
       <c r="R52" s="3">
         <v>800</v>
       </c>
       <c r="S52" s="3">
+        <v>800</v>
+      </c>
+      <c r="T52" s="3">
         <v>900</v>
-      </c>
-      <c r="T52" s="3">
-        <v>500</v>
       </c>
       <c r="U52" s="3">
         <v>500</v>
       </c>
       <c r="V52" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="W52" s="3">
         <v>200</v>
       </c>
       <c r="X52" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>113200</v>
+      </c>
+      <c r="E54" s="3">
         <v>123700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>131100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>135900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>144500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>174500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>131200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>134800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>127900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>107900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>103100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>112100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>118900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>125500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>133000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>151700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>183700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>101700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>176100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>112300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>110400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,81 +3795,85 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3500</v>
       </c>
       <c r="I57" s="3">
         <v>3500</v>
       </c>
       <c r="J57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3760,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>500</v>
@@ -3769,11 +3903,11 @@
         <v>500</v>
       </c>
       <c r="N58" s="3">
+        <v>500</v>
+      </c>
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
@@ -3784,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
@@ -3799,146 +3933,155 @@
         <v>100</v>
       </c>
       <c r="X58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E59" s="3">
         <v>16600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>19800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>43500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E60" s="3">
         <v>19000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>25100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>24600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>47100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6600</v>
-      </c>
-      <c r="L60" s="3">
-        <v>7800</v>
       </c>
       <c r="M60" s="3">
         <v>7800</v>
       </c>
       <c r="N60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="O60" s="3">
         <v>7500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4500</v>
-      </c>
-      <c r="V60" s="3">
-        <v>5800</v>
       </c>
       <c r="W60" s="3">
         <v>5800</v>
       </c>
       <c r="X60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="Y60" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,7 +4089,7 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3973,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
@@ -3991,90 +4134,96 @@
         <v>100</v>
       </c>
       <c r="T61" s="3">
+        <v>100</v>
+      </c>
+      <c r="U61" s="3">
         <v>2000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E62" s="3">
         <v>32700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>30800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>29300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>34700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>36500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E66" s="3">
         <v>50300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>52200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>53100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>58000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>82300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>11800</v>
       </c>
       <c r="M66" s="3">
         <v>11800</v>
       </c>
       <c r="N66" s="3">
+        <v>11800</v>
+      </c>
+      <c r="O66" s="3">
         <v>12600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>363400</v>
+        <v>-367700</v>
       </c>
       <c r="E72" s="3">
+        <v>-363400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-357000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-350900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-344200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-337100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-308100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-300300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-295500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-294100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-296100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-288300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-281800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-273400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-268900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-252400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-222400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-261900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-216900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-283600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-279400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-216300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E76" s="3">
         <v>73300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>78900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>82800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>86500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>92200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>120700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>124700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>117700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>96200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>91300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>99400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>106500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>113000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>117200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>133400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>162800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>93800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>171100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>101000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>100000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>11</v>
+      <c r="D81" s="3">
+        <v>-4400</v>
       </c>
       <c r="E81" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-29000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-16500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-30000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>39300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-45000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>66700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-63500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5245,22 +5444,22 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>700</v>
-      </c>
-      <c r="P83" s="3">
-        <v>800</v>
       </c>
       <c r="Q83" s="3">
         <v>800</v>
@@ -5272,13 +5471,13 @@
         <v>800</v>
       </c>
       <c r="T83" s="3">
+        <v>800</v>
+      </c>
+      <c r="U83" s="3">
         <v>700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>800</v>
-      </c>
-      <c r="V83" s="3">
-        <v>900</v>
       </c>
       <c r="W83" s="3">
         <v>900</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-10400</v>
+        <v>-11200</v>
       </c>
       <c r="E89" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-5500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-9700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-9300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-7300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-7400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-10300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,25 +5940,26 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>11</v>
+      <c r="D91" s="3">
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
@@ -5747,7 +5968,7 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5765,10 +5986,10 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-200</v>
       </c>
       <c r="S91" s="3">
         <v>-200</v>
@@ -5780,16 +6001,19 @@
         <v>-200</v>
       </c>
       <c r="V91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,25 +6151,28 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>87200</v>
+        <v>15400</v>
       </c>
       <c r="E94" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-40900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
@@ -5951,49 +6181,52 @@
         <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
         <v>10100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>6700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>13500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>9800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>2200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>11300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>21000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>24600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
-      </c>
-      <c r="T100" s="3">
-        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>4900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6367,14 +6616,14 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -6385,113 +6634,119 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-100</v>
-      </c>
-      <c r="W101" s="3">
-        <v>100</v>
       </c>
       <c r="X101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>75300</v>
+        <v>4100</v>
       </c>
       <c r="E102" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-46100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>22300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>23500</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>19900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-9900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-7300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-7400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>20200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>LCTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,186 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
-      </c>
-      <c r="L8" s="3">
-        <v>400</v>
       </c>
       <c r="M8" s="3">
         <v>400</v>
       </c>
       <c r="N8" s="3">
+        <v>400</v>
+      </c>
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,7 +855,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
@@ -860,10 +867,10 @@
         <v>200</v>
       </c>
       <c r="J9" s="3">
+        <v>200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -896,10 +903,10 @@
         <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
         <v>100</v>
@@ -907,79 +914,85 @@
       <c r="Y9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E10" s="3">
         <v>2300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
-      </c>
-      <c r="L10" s="3">
-        <v>300</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
       </c>
       <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,79 +1018,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E12" s="3">
         <v>4200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>4300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>5800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>5400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,16 +1164,19 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1164,20 +1184,20 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-500</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>11</v>
@@ -1191,8 +1211,8 @@
       <c r="P14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1207,19 +1227,22 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-78500</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>800</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1247,26 +1270,26 @@
       <c r="K15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>200</v>
       </c>
       <c r="N15" s="3">
         <v>200</v>
       </c>
       <c r="O15" s="3">
+        <v>200</v>
+      </c>
+      <c r="P15" s="3">
         <v>300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>600</v>
-      </c>
-      <c r="R15" s="3">
-        <v>500</v>
       </c>
       <c r="S15" s="3">
         <v>500</v>
@@ -1275,10 +1298,10 @@
         <v>500</v>
       </c>
       <c r="U15" s="3">
+        <v>500</v>
+      </c>
+      <c r="V15" s="3">
         <v>400</v>
-      </c>
-      <c r="V15" s="3">
-        <v>600</v>
       </c>
       <c r="W15" s="3">
         <v>600</v>
@@ -1286,11 +1309,14 @@
       <c r="X15" s="3">
         <v>600</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="Y15" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E17" s="3">
         <v>9000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>29400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>-67200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>12900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-28200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-10800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-12800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-10200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>68200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-9200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-12200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,150 +1515,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-9100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-20500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>47700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-35200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-51500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-67300</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-27800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-16700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-30500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>35700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-44600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>67300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-62800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,139 +1735,145 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-28000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-31300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>34900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-45300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>66500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-63700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-76800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1800</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-4400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-300</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
@@ -1835,10 +1881,13 @@
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-29200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-16500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-30100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>39300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-45000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>66500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-63700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-72100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-29000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-16500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-30000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>39300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-45000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>66700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-63500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>9100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>20500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-47700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>35200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>51500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-29000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-16500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-30000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>39300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-45000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>66700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-63500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-29000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-16500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-30000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>39300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-45000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>66700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-63500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,221 +2834,231 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E41" s="3">
         <v>15500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>70900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>78100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>55700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>60800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>62000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>56200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>32600</v>
       </c>
       <c r="N41" s="3">
         <v>32600</v>
       </c>
       <c r="O41" s="3">
+        <v>32600</v>
+      </c>
+      <c r="P41" s="3">
         <v>12700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>18000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>23600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>19500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>27200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>29800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>36800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E42" s="3">
         <v>31400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>46500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>41600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>4300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>15900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>21200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>21300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>8500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>9100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>7200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>50800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>24600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>24300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>23900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>23600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>13700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3800</v>
-      </c>
-      <c r="X43" s="3">
-        <v>3000</v>
       </c>
       <c r="Y43" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,150 +3128,159 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1400</v>
       </c>
       <c r="O45" s="3">
         <v>1400</v>
       </c>
       <c r="P45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q45" s="3">
         <v>2200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E46" s="3">
         <v>49700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>60000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>68500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>74000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>81900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>111500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>68300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>71600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>64600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>44000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>39700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>46200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>52300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>57500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>61600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>20500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>30700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>36400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>36900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>34500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>36100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3225,99 +3330,105 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>59400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>80400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>55800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>129900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>66800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>62400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>117200</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E48" s="3">
         <v>5600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3325,7 +3436,7 @@
         <v>57300</v>
       </c>
       <c r="E49" s="3">
-        <v>57400</v>
+        <v>57300</v>
       </c>
       <c r="F49" s="3">
         <v>57400</v>
@@ -3334,7 +3445,7 @@
         <v>57400</v>
       </c>
       <c r="H49" s="3">
-        <v>57500</v>
+        <v>57400</v>
       </c>
       <c r="I49" s="3">
         <v>57500</v>
@@ -3343,52 +3454,55 @@
         <v>57500</v>
       </c>
       <c r="K49" s="3">
-        <v>57600</v>
+        <v>57500</v>
       </c>
       <c r="L49" s="3">
         <v>57600</v>
       </c>
       <c r="M49" s="3">
+        <v>57600</v>
+      </c>
+      <c r="N49" s="3">
         <v>57700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>57800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>58100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>58400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>58900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>61700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>62300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>62800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3565,43 +3685,46 @@
         <v>600</v>
       </c>
       <c r="N52" s="3">
+        <v>600</v>
+      </c>
+      <c r="O52" s="3">
         <v>700</v>
-      </c>
-      <c r="O52" s="3">
-        <v>600</v>
       </c>
       <c r="P52" s="3">
         <v>600</v>
       </c>
       <c r="Q52" s="3">
+        <v>600</v>
+      </c>
+      <c r="R52" s="3">
         <v>900</v>
-      </c>
-      <c r="R52" s="3">
-        <v>800</v>
       </c>
       <c r="S52" s="3">
         <v>800</v>
       </c>
       <c r="T52" s="3">
+        <v>800</v>
+      </c>
+      <c r="U52" s="3">
         <v>900</v>
-      </c>
-      <c r="U52" s="3">
-        <v>500</v>
       </c>
       <c r="V52" s="3">
         <v>500</v>
       </c>
       <c r="W52" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="X52" s="3">
         <v>200</v>
       </c>
       <c r="Y52" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>111700</v>
+      </c>
+      <c r="E54" s="3">
         <v>113200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>123700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>131100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>135900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>144500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>174500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>131200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>134800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>127900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>107900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>103100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>112100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>118900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>125500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>133000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>151700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>183700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>101700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>176100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>112300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>110400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,79 +3926,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>3500</v>
       </c>
       <c r="J57" s="3">
         <v>3500</v>
       </c>
       <c r="K57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3876,7 +4010,7 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3897,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>500</v>
@@ -3906,11 +4040,11 @@
         <v>500</v>
       </c>
       <c r="O58" s="3">
+        <v>500</v>
+      </c>
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
@@ -3921,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>100</v>
@@ -3936,152 +4070,161 @@
         <v>100</v>
       </c>
       <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E59" s="3">
         <v>14200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>43500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E60" s="3">
         <v>17200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>25100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>47100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6600</v>
-      </c>
-      <c r="M60" s="3">
-        <v>7800</v>
       </c>
       <c r="N60" s="3">
         <v>7800</v>
       </c>
       <c r="O60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="P60" s="3">
         <v>7500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4500</v>
-      </c>
-      <c r="W60" s="3">
-        <v>5800</v>
       </c>
       <c r="X60" s="3">
         <v>5800</v>
       </c>
       <c r="Y60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="Z60" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4092,7 +4235,7 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -4119,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
@@ -4137,93 +4280,99 @@
         <v>100</v>
       </c>
       <c r="U61" s="3">
+        <v>100</v>
+      </c>
+      <c r="V61" s="3">
         <v>2000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E62" s="3">
         <v>26800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>32700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>30800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>29300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>34700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>36500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>12000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E66" s="3">
         <v>42800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>50300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>52200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>53100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>58000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>82300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>11800</v>
       </c>
       <c r="N66" s="3">
         <v>11800</v>
       </c>
       <c r="O66" s="3">
+        <v>11800</v>
+      </c>
+      <c r="P66" s="3">
         <v>12600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>18300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>20900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-373000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-367700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-363400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-357000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-350900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-344200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-337100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-308100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-300300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-295500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-294100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-296100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-288300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-281800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-273400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-268900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-252400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-222400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-261900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-216900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-283600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-279400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-216300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E76" s="3">
         <v>70500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>73300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>78900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>82800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>86500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>92200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>120700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>124700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>117700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>96200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>91300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>99400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>106500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>113000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>117200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>133400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>162800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>93800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>171100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>101000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>100000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-29000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-16500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-30000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>39300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-45000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>66700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-63500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5447,22 +5646,22 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>700</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>800</v>
       </c>
       <c r="R83" s="3">
         <v>800</v>
@@ -5474,13 +5673,13 @@
         <v>800</v>
       </c>
       <c r="U83" s="3">
+        <v>800</v>
+      </c>
+      <c r="V83" s="3">
         <v>700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>800</v>
-      </c>
-      <c r="W83" s="3">
-        <v>900</v>
       </c>
       <c r="X83" s="3">
         <v>900</v>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-9700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-9300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-5800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-7300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-7400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,28 +6161,29 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -5971,7 +6192,7 @@
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5989,10 +6210,10 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-200</v>
       </c>
       <c r="T91" s="3">
         <v>-200</v>
@@ -6004,16 +6225,19 @@
         <v>-200</v>
       </c>
       <c r="W91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,28 +6381,31 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E94" s="3">
         <v>15400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-40900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -6184,49 +6414,52 @@
         <v>-100</v>
       </c>
       <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
         <v>10100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>6700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>13500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>9800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>2200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>11300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>21000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>24600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
-      </c>
-      <c r="U100" s="3">
-        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
       </c>
       <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>4900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6619,14 +6868,14 @@
         <v>-100</v>
       </c>
       <c r="F101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -6637,116 +6886,122 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-100</v>
-      </c>
-      <c r="X101" s="3">
-        <v>100</v>
       </c>
       <c r="Y101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E102" s="3">
         <v>4100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-46100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>22300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>23500</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>19900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-9900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-7300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-7400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>20200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LCTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>LCTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,191 +665,198 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
         <v>3200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
-      </c>
-      <c r="M8" s="3">
-        <v>400</v>
       </c>
       <c r="N8" s="3">
         <v>400</v>
       </c>
       <c r="O8" s="3">
+        <v>400</v>
+      </c>
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -858,7 +865,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
@@ -870,10 +877,10 @@
         <v>200</v>
       </c>
       <c r="K9" s="3">
+        <v>200</v>
+      </c>
+      <c r="L9" s="3">
         <v>1000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
@@ -906,10 +913,10 @@
         <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="3">
         <v>100</v>
@@ -917,82 +924,88 @@
       <c r="Z9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
-      </c>
-      <c r="M10" s="3">
-        <v>300</v>
       </c>
       <c r="N10" s="3">
         <v>300</v>
       </c>
       <c r="O10" s="3">
+        <v>300</v>
+      </c>
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,82 +1032,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E12" s="3">
         <v>3900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>3400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>4300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>5800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>5400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1178,8 +1198,8 @@
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1187,20 +1207,20 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-500</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>11</v>
@@ -1214,8 +1234,8 @@
       <c r="Q14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1230,19 +1250,22 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-78500</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>800</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1273,26 +1296,26 @@
       <c r="L15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="3">
         <v>100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>200</v>
       </c>
       <c r="O15" s="3">
         <v>200</v>
       </c>
       <c r="P15" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q15" s="3">
         <v>300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>600</v>
-      </c>
-      <c r="S15" s="3">
-        <v>500</v>
       </c>
       <c r="T15" s="3">
         <v>500</v>
@@ -1301,10 +1324,10 @@
         <v>500</v>
       </c>
       <c r="V15" s="3">
+        <v>500</v>
+      </c>
+      <c r="W15" s="3">
         <v>400</v>
-      </c>
-      <c r="W15" s="3">
-        <v>600</v>
       </c>
       <c r="X15" s="3">
         <v>600</v>
@@ -1312,11 +1335,14 @@
       <c r="Y15" s="3">
         <v>600</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="Z15" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>-67200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>12900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-28200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-10800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-12800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-10200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>68200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-12200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,156 +1549,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-9100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-20500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>47700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-35200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>4500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-51500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-67300</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-27800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-16700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-30500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>35700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-44600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>67300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-62800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,82 +1778,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-28000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-17500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-31300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>34900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-45300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>66500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-63700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-76800</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1821,62 +1867,62 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1800</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-4400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-300</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
@@ -1884,10 +1930,13 @@
         <v>0</v>
       </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-29200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-16500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-30100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>39300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-45000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>66500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-63700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-72100</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-29000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-16500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-30000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>39300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-45000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>66700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-63500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2471,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>9100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>20500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-47700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>35200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-4500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>51500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-29000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-16500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-30000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>39300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-45000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>66700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-63500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-29000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-16500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-30000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>39300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-45000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>66700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-63500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,156 +2921,163 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E41" s="3">
         <v>33900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>70900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>78100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>55700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>60800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>62000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>56200</v>
-      </c>
-      <c r="N41" s="3">
-        <v>32600</v>
       </c>
       <c r="O41" s="3">
         <v>32600</v>
       </c>
       <c r="P41" s="3">
+        <v>32600</v>
+      </c>
+      <c r="Q41" s="3">
         <v>12700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>18000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>23600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>19500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>27200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>29800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>36800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E42" s="3">
         <v>12000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>31400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>46500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>41600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>15900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>21200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>21300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>8500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>9100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>7200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2992,73 +3085,76 @@
         <v>400</v>
       </c>
       <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>50800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>24600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>24300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>23900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>23600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>13700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3800</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>3000</v>
       </c>
       <c r="Z43" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,156 +3227,165 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2400</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1400</v>
       </c>
       <c r="P45" s="3">
         <v>1400</v>
       </c>
       <c r="Q45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R45" s="3">
         <v>2200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E46" s="3">
         <v>48500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>49700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>60000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>68500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>74000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>81900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>111500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>68300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>71600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>64600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>44000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>39700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>46200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>52300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>57500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>61600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>20500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>30700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>36400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>36900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>34500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>36100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3333,102 +3438,108 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
         <v>59400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>80400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>55800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>129900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>66800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>62400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>117200</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E48" s="3">
         <v>5300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3439,7 +3550,7 @@
         <v>57300</v>
       </c>
       <c r="F49" s="3">
-        <v>57400</v>
+        <v>57300</v>
       </c>
       <c r="G49" s="3">
         <v>57400</v>
@@ -3448,7 +3559,7 @@
         <v>57400</v>
       </c>
       <c r="I49" s="3">
-        <v>57500</v>
+        <v>57400</v>
       </c>
       <c r="J49" s="3">
         <v>57500</v>
@@ -3457,52 +3568,55 @@
         <v>57500</v>
       </c>
       <c r="L49" s="3">
-        <v>57600</v>
+        <v>57500</v>
       </c>
       <c r="M49" s="3">
         <v>57600</v>
       </c>
       <c r="N49" s="3">
+        <v>57600</v>
+      </c>
+      <c r="O49" s="3">
         <v>57700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>57800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>58100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>58400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>58900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>61700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>62300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>62800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3766,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3688,43 +3808,46 @@
         <v>600</v>
       </c>
       <c r="O52" s="3">
+        <v>600</v>
+      </c>
+      <c r="P52" s="3">
         <v>700</v>
-      </c>
-      <c r="P52" s="3">
-        <v>600</v>
       </c>
       <c r="Q52" s="3">
         <v>600</v>
       </c>
       <c r="R52" s="3">
+        <v>600</v>
+      </c>
+      <c r="S52" s="3">
         <v>900</v>
-      </c>
-      <c r="S52" s="3">
-        <v>800</v>
       </c>
       <c r="T52" s="3">
         <v>800</v>
       </c>
       <c r="U52" s="3">
+        <v>800</v>
+      </c>
+      <c r="V52" s="3">
         <v>900</v>
-      </c>
-      <c r="V52" s="3">
-        <v>500</v>
       </c>
       <c r="W52" s="3">
         <v>500</v>
       </c>
       <c r="X52" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Y52" s="3">
         <v>200</v>
       </c>
       <c r="Z52" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>106200</v>
+      </c>
+      <c r="E54" s="3">
         <v>111700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>113200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>123700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>131100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>135900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>144500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>174500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>131200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>134800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>127900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>107900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>103100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>112100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>118900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>125500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>133000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>151700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>183700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>101700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>176100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>112300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>110400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>173200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,82 +4057,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3500</v>
       </c>
       <c r="K57" s="3">
         <v>3500</v>
       </c>
       <c r="L57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4013,7 +4147,7 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4034,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>500</v>
@@ -4043,11 +4177,11 @@
         <v>500</v>
       </c>
       <c r="P58" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
@@ -4058,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>100</v>
@@ -4073,158 +4207,167 @@
         <v>100</v>
       </c>
       <c r="Z58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E59" s="3">
         <v>13800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>22500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>43500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E60" s="3">
         <v>16100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>25100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>24600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>47100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6600</v>
-      </c>
-      <c r="N60" s="3">
-        <v>7800</v>
       </c>
       <c r="O60" s="3">
         <v>7800</v>
       </c>
       <c r="P60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="Q60" s="3">
         <v>7500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4500</v>
-      </c>
-      <c r="X60" s="3">
-        <v>5800</v>
       </c>
       <c r="Y60" s="3">
         <v>5800</v>
       </c>
       <c r="Z60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="AA60" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4238,7 +4381,7 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4265,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>100</v>
@@ -4283,96 +4426,102 @@
         <v>100</v>
       </c>
       <c r="V61" s="3">
+        <v>100</v>
+      </c>
+      <c r="W61" s="3">
         <v>2000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E62" s="3">
         <v>24300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>26800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>32700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>30800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>29300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>34700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>36500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>12000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E66" s="3">
         <v>39000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>42800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>50300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>52200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>53100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>58000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>82300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>11800</v>
       </c>
       <c r="O66" s="3">
         <v>11800</v>
       </c>
       <c r="P66" s="3">
+        <v>11800</v>
+      </c>
+      <c r="Q66" s="3">
         <v>12600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>18300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>20900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-380100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-373000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-367700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-363400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-357000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-350900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-344200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-337100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-308100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-300300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-295500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-294100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-296100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-288300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-281800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-273400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-268900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-252400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-222400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-261900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-216900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-283600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-279400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-216300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E76" s="3">
         <v>72700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>70500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>73300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>78900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>82800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>86500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>92200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>120700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>124700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>117700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>96200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>91300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>99400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>106500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>113000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>117200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>133400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>162800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>93800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>171100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>101000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>100000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>162600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-29000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-16500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-30000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>39300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-45000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>66700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-63500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-71900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5814,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5649,22 +5848,22 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>700</v>
-      </c>
-      <c r="R83" s="3">
-        <v>800</v>
       </c>
       <c r="S83" s="3">
         <v>800</v>
@@ -5676,13 +5875,13 @@
         <v>800</v>
       </c>
       <c r="V83" s="3">
+        <v>800</v>
+      </c>
+      <c r="W83" s="3">
         <v>700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>800</v>
-      </c>
-      <c r="X83" s="3">
-        <v>900</v>
       </c>
       <c r="Y83" s="3">
         <v>900</v>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-7400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-9700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-9300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-5800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-7300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-7400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,31 +6382,32 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
@@ -6195,7 +6416,7 @@
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6213,10 +6434,10 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-200</v>
       </c>
       <c r="U91" s="3">
         <v>-200</v>
@@ -6228,16 +6449,19 @@
         <v>-200</v>
       </c>
       <c r="X91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,31 +6611,34 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E94" s="3">
         <v>19200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>15400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-40900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
@@ -6417,49 +6647,52 @@
         <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N94" s="3">
         <v>10100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>6700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>5300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>13500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>9800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>2200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,87 +7025,93 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>5600</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>11300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>21000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>24600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
-      </c>
-      <c r="V100" s="3">
-        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>100</v>
       </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>4900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
@@ -6871,14 +7120,14 @@
         <v>-100</v>
       </c>
       <c r="G101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -6889,119 +7138,125 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>100</v>
       </c>
       <c r="Z101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E102" s="3">
         <v>18400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-46100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>22300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>23500</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>19900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-7300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-7400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>20200</v>
       </c>
     </row>
